--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4480" uniqueCount="449">
   <si>
     <t>description</t>
   </si>
@@ -1406,6 +1406,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2219,8 +2222,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3457,8 +3554,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="226">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -5737,13 +5987,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6128,49 +6660,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="206" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="206" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="209" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="209" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6468,7 +7045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7675,7 +8252,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
@@ -7683,7 +8260,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61">
@@ -7691,7 +8268,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62">
@@ -7699,7 +8276,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -7707,7 +8284,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -7715,7 +8292,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>133</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65">
@@ -7723,7 +8300,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -7731,7 +8308,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -7739,7 +8316,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
@@ -7747,7 +8324,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
@@ -7755,7 +8332,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -7763,7 +8340,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -7771,7 +8348,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -7779,7 +8356,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -7787,7 +8364,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -7795,7 +8372,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -7803,7 +8380,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -7811,7 +8388,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
@@ -7819,7 +8396,7 @@
         <v>425</v>
       </c>
       <c r="U77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -7827,7 +8404,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -7835,7 +8412,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -7843,7 +8420,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -7851,7 +8428,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82">
@@ -7859,7 +8436,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83">
@@ -7867,7 +8444,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -7875,7 +8452,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -7883,7 +8460,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -7891,7 +8468,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -7899,7 +8476,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88">
@@ -7907,7 +8484,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -7915,7 +8492,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
@@ -7923,7 +8500,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91">
@@ -7931,7 +8508,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
@@ -7939,101 +8516,106 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -35,8 +35,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4480" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1409,6 +1409,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="143" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2316,8 +2340,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="246">
+  <fills count="273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3707,8 +3825,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="282">
     <border>
       <left/>
       <right/>
@@ -6269,13 +6540,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6705,49 +7258,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="233" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="236" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="248" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="251" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="254" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="260" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="263" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7045,7 +7643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7369,6 +7967,9 @@
       <c r="C5" t="s">
         <v>217</v>
       </c>
+      <c r="D5" t="s">
+        <v>449</v>
+      </c>
       <c r="E5" t="s">
         <v>329</v>
       </c>
@@ -7462,7 +8063,7 @@
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>455</v>
       </c>
       <c r="W6" t="s">
         <v>173</v>
@@ -7517,6 +8118,9 @@
       <c r="U7" t="s">
         <v>92</v>
       </c>
+      <c r="V7" t="s">
+        <v>456</v>
+      </c>
       <c r="W7" t="s">
         <v>174</v>
       </c>
@@ -7567,6 +8171,9 @@
       <c r="U8" t="s">
         <v>93</v>
       </c>
+      <c r="V8" t="s">
+        <v>168</v>
+      </c>
       <c r="W8" t="s">
         <v>175</v>
       </c>
@@ -7635,7 +8242,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="M10" t="s">
         <v>430</v>
@@ -7670,7 +8277,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -7702,7 +8309,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -7730,6 +8337,9 @@
       <c r="I13" t="s">
         <v>74</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -7880,7 +8490,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -7897,7 +8507,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -7913,6 +8523,9 @@
       <c r="E22" t="s">
         <v>292</v>
       </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" t="s">
         <v>102</v>
       </c>
@@ -8140,7 +8753,7 @@
         <v>335</v>
       </c>
       <c r="U45" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
@@ -8148,7 +8761,7 @@
         <v>205</v>
       </c>
       <c r="U46" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
@@ -8156,7 +8769,7 @@
         <v>313</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -8164,7 +8777,7 @@
         <v>332</v>
       </c>
       <c r="U48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -8172,7 +8785,7 @@
         <v>361</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -8180,7 +8793,7 @@
         <v>295</v>
       </c>
       <c r="U50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -8188,7 +8801,7 @@
         <v>349</v>
       </c>
       <c r="U51" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -8196,7 +8809,7 @@
         <v>324</v>
       </c>
       <c r="U52" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
@@ -8204,7 +8817,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -8212,7 +8825,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -8220,7 +8833,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -8228,7 +8841,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -8236,7 +8849,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -8244,7 +8857,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -8252,7 +8865,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -8260,7 +8873,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61">
@@ -8268,7 +8881,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -8276,7 +8889,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63">
@@ -8284,7 +8897,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
@@ -8292,7 +8905,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>438</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -8300,7 +8913,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -8308,7 +8921,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -8316,7 +8929,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -8324,7 +8937,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
@@ -8332,7 +8945,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70">
@@ -8340,7 +8953,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -8348,7 +8961,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -8356,7 +8969,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -8364,7 +8977,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -8372,7 +8985,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -8380,7 +8993,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -8388,7 +9001,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -8396,7 +9009,7 @@
         <v>425</v>
       </c>
       <c r="U77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -8404,7 +9017,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -8412,7 +9025,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
@@ -8420,7 +9033,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -8428,7 +9041,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -8436,7 +9049,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83">
@@ -8444,7 +9057,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84">
@@ -8452,7 +9065,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -8460,7 +9073,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -8468,7 +9081,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -8476,7 +9089,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -8484,7 +9097,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -8492,7 +9105,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -8500,7 +9113,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
@@ -8508,7 +9121,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92">
@@ -8516,106 +9129,116 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1440,7 +1440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="173" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2434,8 +2434,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="273">
+  <fills count="300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3978,8 +4072,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="282">
+  <borders count="310">
     <border>
       <left/>
       <right/>
@@ -6822,13 +7069,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7303,49 +7832,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="248" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="251" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="254" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="260" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="260" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="263" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="263" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5843" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1440,7 +1440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="173" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2528,8 +2528,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="300">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4225,8 +4319,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="310">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -7351,13 +7598,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7877,49 +8406,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="287" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="290" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="314" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="317" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8672,7 +9246,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -8728,7 +9302,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -8778,7 +9352,7 @@
         <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -8816,7 +9390,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>451</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>430</v>
@@ -8851,7 +9425,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -8883,7 +9457,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -8912,7 +9486,7 @@
         <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
@@ -8939,6 +9513,9 @@
       </c>
       <c r="I14" t="s">
         <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5843" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7214" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1433,6 +1433,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1449,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="188" x14ac:knownFonts="1">
+  <fonts count="233" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2622,8 +2631,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4472,8 +4763,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="422">
     <border>
       <left/>
       <right/>
@@ -7880,13 +8630,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8451,49 +10047,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="176" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="314" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="314" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="317" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="317" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="341" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="344" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="368" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="371" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8977,7 +10708,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -9051,7 +10782,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>458</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -9122,7 +10853,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -9184,7 +10915,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -9240,7 +10971,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -9296,7 +11027,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -9348,6 +11079,9 @@
       <c r="E9" t="s">
         <v>299</v>
       </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
       <c r="I9" t="s">
         <v>383</v>
       </c>
@@ -9385,6 +11119,9 @@
       </c>
       <c r="E10" t="s">
         <v>345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,12 +13,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7214" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8136" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1442,6 +1442,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="233" x14ac:knownFonts="1">
+  <fonts count="263" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2913,8 +2925,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="408">
+  <fills count="462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5222,8 +5422,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="422">
+  <borders count="478">
     <border>
       <left/>
       <right/>
@@ -9476,13 +9982,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10182,49 +11252,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="383" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="386" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="389" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="392" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="395" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="398" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="407" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="410" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="413" fontId="235" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="416" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="419" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="422" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="425" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="434" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10628,7 +11788,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>461</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -10708,7 +11868,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -10782,7 +11942,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -10853,7 +12013,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -10915,7 +12075,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>458</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -10971,7 +12131,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -11027,7 +12187,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -11080,7 +12240,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>463</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -11121,7 +12281,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -11158,6 +12318,9 @@
       <c r="E11" t="s">
         <v>267</v>
       </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
@@ -11190,6 +12353,9 @@
       <c r="E12" t="s">
         <v>256</v>
       </c>
+      <c r="F12" t="s">
+        <v>317</v>
+      </c>
       <c r="I12" t="s">
         <v>73</v>
       </c>
@@ -11219,6 +12385,9 @@
       <c r="E13" t="s">
         <v>309</v>
       </c>
+      <c r="F13" t="s">
+        <v>318</v>
+      </c>
       <c r="I13" t="s">
         <v>74</v>
       </c>
@@ -11406,7 +12575,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -11423,7 +12592,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -11437,7 +12606,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -11451,7 +12620,7 @@
         <v>422</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -11465,7 +12634,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -11476,7 +12645,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -11487,7 +12656,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -11498,7 +12667,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -11509,7 +12678,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -11520,7 +12689,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -11531,7 +12700,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -11541,6 +12710,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" t="s">
         <v>253</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8136" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9060" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1454,6 +1454,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="263" x14ac:knownFonts="1">
+  <fonts count="293" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3113,8 +3119,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="462">
+  <fills count="516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5728,8 +5922,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="478">
+  <borders count="534">
     <border>
       <left/>
       <right/>
@@ -10546,13 +11046,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11342,49 +12406,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="437" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="440" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="443" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="446" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="449" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="452" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="461" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="464" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="467" fontId="265" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="470" fontId="266" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="476" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="479" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="488" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11682,7 +12836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13069,7 +14223,7 @@
         <v>425</v>
       </c>
       <c r="U77" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
@@ -13077,7 +14231,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -13085,7 +14239,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -13093,7 +14247,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81">
@@ -13101,7 +14255,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -13109,7 +14263,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83">
@@ -13117,7 +14271,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84">
@@ -13125,7 +14279,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85">
@@ -13133,7 +14287,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
@@ -13141,7 +14295,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -13149,7 +14303,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -13157,7 +14311,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -13165,7 +14319,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -13173,7 +14327,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -13181,7 +14335,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -13189,116 +14343,121 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9060" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9523" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="293" x14ac:knownFonts="1">
+  <fonts count="308" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3307,8 +3310,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="516">
+  <fills count="543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6228,8 +6325,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="534">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -11610,13 +11860,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="321">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12496,49 +13028,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="491" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="494" fontId="280" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="497" fontId="281" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="503" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="506" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="530" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="533" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12836,7 +13413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14167,7 +14744,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71">
@@ -14175,7 +14752,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -14183,7 +14760,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -14191,7 +14768,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -14199,7 +14776,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -14207,7 +14784,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -14215,7 +14792,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
@@ -14223,7 +14800,7 @@
         <v>425</v>
       </c>
       <c r="U77" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -14231,7 +14808,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -14239,7 +14816,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -14247,7 +14824,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -14255,7 +14832,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82">
@@ -14263,7 +14840,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -14271,7 +14848,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
@@ -14279,7 +14856,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85">
@@ -14287,7 +14864,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
@@ -14295,7 +14872,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -14303,7 +14880,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -14311,7 +14888,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -14319,7 +14896,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -14327,7 +14904,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -14335,7 +14912,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -14343,121 +14920,126 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9523" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9987" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1463,6 +1463,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1473,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="308" x14ac:knownFonts="1">
+  <fonts count="323" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3404,8 +3407,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="543">
+  <fills count="570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6478,8 +6575,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -6501,6 +6751,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12148,7 +12680,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13073,49 +13605,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="518" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="521" fontId="295" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="524" fontId="296" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="530" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="530" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="533" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="533" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="536" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="536" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="539" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="542" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="539" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="557" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="560" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13744,7 +14321,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -13806,7 +14383,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -13862,7 +14439,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -13918,7 +14495,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -13971,7 +14548,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>463</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -14012,7 +14589,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -14050,7 +14627,7 @@
         <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -14085,7 +14662,7 @@
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -14117,7 +14694,7 @@
         <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -14147,6 +14724,9 @@
       </c>
       <c r="E14" t="s">
         <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9987" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10452" uniqueCount="469">
   <si>
     <t>description</t>
   </si>
@@ -1466,6 +1466,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="323" x14ac:knownFonts="1">
+  <fonts count="338" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3501,8 +3504,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="570">
+  <fills count="597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6728,8 +6825,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="618">
     <border>
       <left/>
       <right/>
@@ -6751,6 +7001,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12680,7 +13212,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13650,49 +14182,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="545" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="548" fontId="310" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="551" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="557" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="557" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="560" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="560" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="563" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="563" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="566" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="569" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="566" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="584" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="587" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14729,7 +15306,7 @@
         <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -14758,7 +15335,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -14784,7 +15361,7 @@
         <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -14807,7 +15384,7 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
@@ -14824,7 +15401,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -14841,7 +15418,7 @@
         <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -14858,7 +15435,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -14875,7 +15452,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -14892,7 +15469,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -14907,6 +15484,9 @@
       </c>
       <c r="E23" t="s">
         <v>283</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10452" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10919" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1469,6 +1469,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1482,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="338" x14ac:knownFonts="1">
+  <fonts count="353" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3598,8 +3604,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="597">
+  <fills count="624">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6978,8 +7078,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="618">
+  <borders count="646">
     <border>
       <left/>
       <right/>
@@ -7001,6 +7254,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13212,7 +13747,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="366">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14227,49 +14762,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="572" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="575" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="578" fontId="326" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="584" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="584" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="587" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="587" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="590" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="590" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="596" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14744,7 +15324,7 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -14818,7 +15398,7 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -14889,7 +15469,7 @@
         <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>470</v>
       </c>
       <c r="D5" t="s">
         <v>449</v>
@@ -14954,7 +15534,7 @@
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>381</v>
@@ -15010,7 +15590,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>359</v>
@@ -15066,7 +15646,7 @@
         <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
         <v>360</v>
@@ -15119,7 +15699,7 @@
         <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -15160,7 +15740,7 @@
         <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
         <v>345</v>
@@ -15198,7 +15778,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
         <v>267</v>
@@ -15233,7 +15813,7 @@
         <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
         <v>256</v>
@@ -15265,7 +15845,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
         <v>309</v>
@@ -15297,7 +15877,7 @@
         <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>257</v>
@@ -15329,7 +15909,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>258</v>
@@ -15355,7 +15935,7 @@
         <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
         <v>310</v>
@@ -15378,7 +15958,7 @@
         <v>420</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -15395,7 +15975,7 @@
         <v>421</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -15412,7 +15992,7 @@
         <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>289</v>
@@ -15429,7 +16009,7 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>290</v>
@@ -15446,7 +16026,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>291</v>
@@ -15463,7 +16043,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>314</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -15480,7 +16060,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -15497,7 +16077,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>460</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -15511,7 +16091,7 @@
         <v>422</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -15525,7 +16105,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -15536,7 +16116,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -15547,7 +16127,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -15558,7 +16138,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -15569,7 +16149,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -15580,7 +16160,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -15591,7 +16171,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -15602,7 +16182,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -15612,6 +16192,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" t="s">
         <v>323</v>
       </c>
@@ -15620,6 +16203,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
       <c r="E35" t="s">
         <v>300</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10919" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11387" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1475,6 +1475,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1485,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="353" x14ac:knownFonts="1">
+  <fonts count="368" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3698,8 +3701,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="624">
+  <fills count="651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7231,8 +7328,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="646">
+  <borders count="674">
     <border>
       <left/>
       <right/>
@@ -7254,6 +7504,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13747,7 +14279,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="381">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14807,49 +15339,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="602" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="605" fontId="341" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="611" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="614" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="617" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="617" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="626" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="629" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="632" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="638" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="641" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15147,7 +15724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16354,7 +16931,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54">
@@ -16362,7 +16939,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -16370,7 +16947,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -16378,7 +16955,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -16386,7 +16963,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -16394,7 +16971,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -16402,7 +16979,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -16410,7 +16987,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -16418,7 +16995,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
@@ -16426,7 +17003,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63">
@@ -16434,7 +17011,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
@@ -16442,7 +17019,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
@@ -16450,7 +17027,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -16458,7 +17035,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -16466,7 +17043,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -16474,7 +17051,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -16482,7 +17059,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70">
@@ -16490,7 +17067,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71">
@@ -16498,7 +17075,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
@@ -16506,7 +17083,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -16514,7 +17091,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -16522,7 +17099,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -16530,7 +17107,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -16538,7 +17115,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -16546,7 +17123,7 @@
         <v>425</v>
       </c>
       <c r="U77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -16554,7 +17131,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -16562,7 +17139,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80">
@@ -16570,7 +17147,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -16578,7 +17155,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82">
@@ -16586,7 +17163,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -16594,7 +17171,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -16602,7 +17179,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -16610,7 +17187,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86">
@@ -16618,7 +17195,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87">
@@ -16626,7 +17203,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -16634,7 +17211,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -16642,7 +17219,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -16650,7 +17227,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -16658,7 +17235,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
@@ -16666,126 +17243,131 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11387" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11855" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1485,7 +1485,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="368" x14ac:knownFonts="1">
+  <fonts count="383" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3795,8 +3795,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="651">
+  <fills count="678">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7481,8 +7575,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="674">
+  <borders count="702">
     <border>
       <left/>
       <right/>
@@ -7504,6 +7751,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14279,7 +14808,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="396">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15384,49 +15913,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="626" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="626" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="629" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="629" fontId="355" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="632" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="632" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="638" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="638" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="641" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="641" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="644" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="644" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="650" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="665" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="668" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,36 +13,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11855" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12329" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1478,6 +1479,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="383" x14ac:knownFonts="1">
+  <fonts count="399" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3889,8 +3905,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="678">
+  <fills count="705">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7728,8 +7845,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="702">
+  <borders count="730">
     <border>
       <left/>
       <right/>
@@ -7751,6 +8021,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14808,7 +15360,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="412">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15958,49 +16510,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="653" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="685" fillId="656" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="659" fontId="371" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="665" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="665" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="668" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="668" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="671" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="671" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="677" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="680" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="683" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="686" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="689" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="695" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="698" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16298,7 +16898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16315,75 +16915,78 @@
         <v>364</v>
       </c>
       <c r="C1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>387</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>420</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>421</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>388</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>422</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16395,1553 +16998,1568 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>461</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>342</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>377</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>426</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>427</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>428</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>246</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>211</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>389</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>432</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>433</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>374</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>398</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>441</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>366</v>
       </c>
       <c r="C3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" t="s">
         <v>469</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>358</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>334</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>327</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>429</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>233</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>212</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>390</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>434</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>375</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>399</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>165</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>170</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>357</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>380</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>462</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>344</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>231</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>328</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>213</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>391</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>435</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>351</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>400</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>347</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>166</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>171</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>442</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>470</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>449</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>329</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>467</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>235</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>214</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>392</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>436</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>352</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>348</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>172</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>443</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>459</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>236</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>384</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>393</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>354</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>455</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>173</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>458</v>
       </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>431</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>394</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>353</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>456</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>174</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>311</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>360</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>321</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>238</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>395</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>355</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>168</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>446</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>299</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>322</v>
       </c>
-      <c r="I9" t="s">
-        <v>383</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>239</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>396</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>356</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>203</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>308</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>345</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>463</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>430</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>240</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>397</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>250</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>183</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
         <v>249</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>267</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>315</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>451</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>241</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>251</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>252</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>312</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>316</v>
       </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>242</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
         <v>334</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>86</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>247</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>319</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" t="s">
-        <v>468</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>243</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>468</v>
+      </c>
+      <c r="N15" t="s">
         <v>88</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>244</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
         <v>245</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>67</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>420</v>
-      </c>
-      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" t="s">
         <v>379</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
-        <v>373</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
         <v>97</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" t="s">
         <v>423</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>373</v>
+      </c>
+      <c r="V18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>289</v>
       </c>
-      <c r="I19" t="s">
-        <v>385</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>290</v>
       </c>
-      <c r="I20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>385</v>
+      </c>
+      <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>291</v>
       </c>
-      <c r="I21" t="s">
-        <v>450</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>314</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>292</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>450</v>
+      </c>
+      <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>460</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>272</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>422</v>
-      </c>
-      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-      <c r="U26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>424</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>210</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>206</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>205</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>401</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>402</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>425</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12329" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12804" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1494,6 +1494,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="399" x14ac:knownFonts="1">
+  <fonts count="415" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4006,8 +4012,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="705">
+  <fills count="732">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7998,8 +8105,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="730">
+  <borders count="758">
     <border>
       <left/>
       <right/>
@@ -8021,6 +8281,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15360,7 +15902,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="428">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16555,52 +17097,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="680" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="680" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="683" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="683" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="686" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="686" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="689" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="689" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="692" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="695" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="695" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="698" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="725" fillId="698" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="701" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="701" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="704" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="707" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="710" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="713" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="716" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="722" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="725" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16898,7 +17488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16998,7 +17588,7 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -18107,7 +18697,7 @@
         <v>349</v>
       </c>
       <c r="V51" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52">
@@ -18115,7 +18705,7 @@
         <v>324</v>
       </c>
       <c r="V52" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -18123,7 +18713,7 @@
         <v>261</v>
       </c>
       <c r="V53" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
@@ -18131,7 +18721,7 @@
         <v>285</v>
       </c>
       <c r="V54" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
@@ -18139,7 +18729,7 @@
         <v>286</v>
       </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -18147,7 +18737,7 @@
         <v>287</v>
       </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -18155,7 +18745,7 @@
         <v>296</v>
       </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -18163,7 +18753,7 @@
         <v>305</v>
       </c>
       <c r="V58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -18171,7 +18761,7 @@
         <v>330</v>
       </c>
       <c r="V59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -18179,7 +18769,7 @@
         <v>302</v>
       </c>
       <c r="V60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -18187,7 +18777,7 @@
         <v>303</v>
       </c>
       <c r="V61" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -18195,7 +18785,7 @@
         <v>362</v>
       </c>
       <c r="V62" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63">
@@ -18203,7 +18793,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64">
@@ -18211,7 +18801,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65">
@@ -18219,7 +18809,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66">
@@ -18227,7 +18817,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -18235,7 +18825,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -18243,7 +18833,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -18251,7 +18841,7 @@
         <v>401</v>
       </c>
       <c r="V69" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -18259,7 +18849,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
@@ -18267,7 +18857,7 @@
         <v>402</v>
       </c>
       <c r="V71" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
@@ -18275,7 +18865,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73">
@@ -18283,7 +18873,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -18291,7 +18881,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -18299,7 +18889,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -18307,7 +18897,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -18315,7 +18905,7 @@
         <v>425</v>
       </c>
       <c r="V77" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -18323,7 +18913,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -18331,7 +18921,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -18339,7 +18929,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
@@ -18347,7 +18937,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -18355,7 +18945,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -18363,7 +18953,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -18371,7 +18961,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -18379,7 +18969,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -18387,7 +18977,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87">
@@ -18395,7 +18985,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88">
@@ -18403,7 +18993,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -18411,7 +19001,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -18419,7 +19009,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -18427,7 +19017,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -18435,131 +19025,136 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -20,7 +20,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12804" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14233" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1500,6 +1500,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1516,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="415" x14ac:knownFonts="1">
+  <fonts count="463" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4113,8 +4122,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="732">
+  <fills count="813">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8258,8 +8570,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="758">
+  <borders count="842">
     <border>
       <left/>
       <right/>
@@ -8281,6 +9052,852 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15902,7 +17519,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="476">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17145,52 +18762,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="707" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="737" fillId="707" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="710" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="741" fillId="710" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="713" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="713" fontId="402" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="716" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="716" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="719" fontId="405" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="722" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="749" fillId="722" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="725" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="725" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="728" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="728" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="731" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="765" fillId="734" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="769" fillId="737" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="740" fontId="418" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="743" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="746" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="749" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="781" fillId="752" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="755" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="755" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="758" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="793" fillId="761" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="797" fillId="764" fontId="433" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="767" fontId="434" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="770" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="773" fontId="437" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="805" fillId="776" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="809" fillId="779" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="813" fillId="782" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="813" fillId="782" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="785" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="788" borderId="821" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="791" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="794" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="797" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="803" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="806" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="812" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17606,7 +19367,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>481</v>
       </c>
       <c r="J2" t="s">
         <v>308</v>
@@ -17689,7 +19450,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
         <v>334</v>
@@ -17760,7 +19521,7 @@
         <v>462</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
         <v>231</v>
@@ -17831,7 +19592,7 @@
         <v>467</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
         <v>475</v>
@@ -17891,6 +19652,9 @@
       </c>
       <c r="G6" t="s">
         <v>459</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
       </c>
       <c r="J6" t="s">
         <v>64</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14233" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15669" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1509,6 +1509,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="463" x14ac:knownFonts="1">
+  <fonts count="511" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4425,8 +4437,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="813">
+  <fills count="894">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9029,8 +9344,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="842">
+  <borders count="926">
     <border>
       <left/>
       <right/>
@@ -9052,6 +9826,852 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17519,7 +19139,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="524">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18906,52 +20526,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="788" borderId="821" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="821" fillId="788" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="791" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="825" fillId="791" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="794" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="794" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="797" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="797" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="800" fontId="453" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="803" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="806" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="812" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="461" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="833" fillId="803" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="837" fillId="806" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="809" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="809" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="812" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="849" fillId="815" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="853" fillId="818" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="821" fontId="466" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="824" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="827" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="861" fillId="830" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="865" fillId="833" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="836" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="836" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="839" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="877" fillId="842" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="881" fillId="845" fontId="481" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="885" fillId="848" fontId="482" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="885" fillId="851" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="854" fontId="485" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="889" fillId="857" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="893" fillId="860" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="863" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="863" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="866" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="869" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="872" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="875" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="884" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="887" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19249,7 +21013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -20115,7 +21879,7 @@
         <v>289</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>485</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
@@ -20132,7 +21896,7 @@
         <v>290</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
@@ -20149,7 +21913,7 @@
         <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
@@ -20166,7 +21930,7 @@
         <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
@@ -20183,7 +21947,7 @@
         <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
@@ -20200,7 +21964,7 @@
         <v>272</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
@@ -20216,6 +21980,9 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
@@ -20239,7 +22006,7 @@
         <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -20250,7 +22017,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
@@ -20261,7 +22028,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>57</v>
+        <v>424</v>
       </c>
       <c r="F29" t="s">
         <v>277</v>
@@ -20272,7 +22039,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>210</v>
@@ -20283,7 +22050,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -20294,7 +22061,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>278</v>
@@ -20305,7 +22072,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
@@ -20316,7 +22083,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>323</v>
@@ -20327,7 +22094,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>300</v>
@@ -20337,6 +22104,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" t="s">
         <v>254</v>
       </c>
@@ -20345,6 +22115,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" t="s">
         <v>301</v>
       </c>
@@ -20637,7 +22410,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74">
@@ -20645,7 +22418,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -20653,7 +22426,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -20661,7 +22434,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -20669,7 +22442,7 @@
         <v>425</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -20677,7 +22450,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -20685,7 +22458,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -20693,7 +22466,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -20701,7 +22474,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82">
@@ -20709,7 +22482,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
@@ -20717,7 +22490,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -20725,7 +22498,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -20733,7 +22506,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -20741,7 +22514,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -20749,7 +22522,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88">
@@ -20757,7 +22530,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89">
@@ -20765,7 +22538,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -20773,7 +22546,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -20781,7 +22554,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -20789,136 +22562,141 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15669" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16151" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1521,6 +1521,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="511" x14ac:knownFonts="1">
+  <fonts count="527" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4740,8 +4746,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="894">
+  <fills count="921">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9803,8 +9910,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="926">
+  <borders count="954">
     <border>
       <left/>
       <right/>
@@ -9826,6 +10086,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19139,7 +19681,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="540">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20670,52 +21212,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="869" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="905" fillId="869" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="872" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="909" fillId="872" fontId="497" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="875" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="875" fontId="498" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="878" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="881" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="503" fillId="884" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="887" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="505" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="507" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="508" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="917" fillId="884" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="921" fillId="887" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="890" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="890" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="893" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="896" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="899" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="902" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="905" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="911" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="914" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21668,7 +22258,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="N11" t="s">
         <v>85</v>
@@ -21703,7 +22293,7 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -21735,7 +22325,7 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>487</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
@@ -21767,7 +22357,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>87</v>
@@ -21795,6 +22385,9 @@
       <c r="J15" t="s">
         <v>468</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
@@ -21820,6 +22413,9 @@
       </c>
       <c r="J16" t="s">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
         <v>245</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
     <definedName name="sound">'#system'!$S$2:$S$5</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16151" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16636" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1527,6 +1527,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="527" x14ac:knownFonts="1">
+  <fonts count="543" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4847,8 +4856,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="921">
+  <fills count="948">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10063,8 +10173,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="954">
+  <borders count="982">
     <border>
       <left/>
       <right/>
@@ -10086,6 +10349,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19681,7 +20226,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="556">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21260,52 +21805,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="896" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="933" fillId="896" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="899" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="937" fillId="899" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="902" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="941" fillId="902" fontId="514" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="905" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="941" fillId="905" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="908" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="911" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="520" fillId="914" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="945" fillId="911" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="949" fillId="914" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="917" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="917" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="920" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="923" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="926" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="929" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="932" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="938" borderId="973" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="941" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21603,7 +22196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22200,7 +22793,7 @@
         <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>228</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10">
@@ -22238,7 +22831,7 @@
         <v>183</v>
       </c>
       <c r="AA10" t="s">
-        <v>229</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11">
@@ -22273,7 +22866,7 @@
         <v>252</v>
       </c>
       <c r="AA11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -22307,6 +22900,9 @@
       <c r="Y12" t="s">
         <v>184</v>
       </c>
+      <c r="AA12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -22339,6 +22935,9 @@
       <c r="Y13" t="s">
         <v>185</v>
       </c>
+      <c r="AA13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22926,7 +23525,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64">
@@ -22934,7 +23533,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65">
@@ -22942,7 +23541,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66">
@@ -22950,7 +23549,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67">
@@ -22958,7 +23557,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -22966,7 +23565,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -22974,7 +23573,7 @@
         <v>401</v>
       </c>
       <c r="V69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -22982,7 +23581,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -22990,7 +23589,7 @@
         <v>402</v>
       </c>
       <c r="V71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72">
@@ -22998,7 +23597,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73">
@@ -23006,7 +23605,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74">
@@ -23014,7 +23613,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75">
@@ -23022,7 +23621,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -23030,7 +23629,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -23038,7 +23637,7 @@
         <v>425</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -23046,7 +23645,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -23054,7 +23653,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -23062,7 +23661,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -23070,7 +23669,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
@@ -23078,7 +23677,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83">
@@ -23086,7 +23685,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -23094,7 +23693,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -23102,7 +23701,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -23110,7 +23709,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -23118,7 +23717,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -23126,7 +23725,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89">
@@ -23134,7 +23733,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90">
@@ -23142,7 +23741,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -23150,7 +23749,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -23158,141 +23757,146 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -19,31 +19,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16636" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17129" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1536,6 +1537,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1568,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="543" x14ac:knownFonts="1">
+  <fonts count="559" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4957,8 +4982,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="948">
+  <fills count="975">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10326,8 +10452,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="982">
+  <borders count="1010">
     <border>
       <left/>
       <right/>
@@ -10349,6 +10628,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20226,7 +20787,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="572">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21853,52 +22414,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="923" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="961" fillId="923" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="926" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="965" fillId="926" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="929" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="929" fontId="530" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="932" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="932" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="935" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="535" fillId="938" borderId="973" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="536" fillId="941" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="537" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="538" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="539" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="540" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="541" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="973" fillId="938" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="977" fillId="941" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="981" fillId="944" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="981" fillId="944" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="947" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="950" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="953" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="956" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="959" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="965" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="968" borderId="1005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22196,7 +22805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22243,48 +22852,51 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>387</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>420</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>421</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>388</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>422</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -22326,48 +22938,51 @@
         <v>426</v>
       </c>
       <c r="M2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N2" t="s">
         <v>427</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>428</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>246</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>211</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>389</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>432</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>433</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>374</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>398</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>164</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>441</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -22394,7 +23009,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>491</v>
       </c>
       <c r="I3" t="s">
         <v>342</v>
@@ -22408,43 +23023,46 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>494</v>
+      </c>
+      <c r="O3" t="s">
         <v>429</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>390</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>434</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>375</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>399</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>165</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>357</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -22467,6 +23085,9 @@
       <c r="G4" t="s">
         <v>462</v>
       </c>
+      <c r="H4" t="s">
+        <v>492</v>
+      </c>
       <c r="I4" t="s">
         <v>343</v>
       </c>
@@ -22479,43 +23100,46 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>495</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>234</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>213</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>391</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>435</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>351</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>400</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>347</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>166</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>442</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -22547,40 +23171,40 @@
       <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>235</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>214</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>392</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>436</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>352</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>348</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>167</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>443</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -22609,37 +23233,37 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>384</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>393</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>354</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>455</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>173</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -22665,37 +23289,37 @@
       <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>431</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>394</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>353</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>456</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -22721,34 +23345,34 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>238</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>395</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>355</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>446</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22774,25 +23398,25 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>396</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>356</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>203</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>182</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>489</v>
       </c>
     </row>
@@ -22815,22 +23439,22 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>430</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>240</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>397</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>250</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>490</v>
       </c>
     </row>
@@ -22853,19 +23477,19 @@
       <c r="L11" t="s">
         <v>486</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>241</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>251</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>252</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22888,25 +23512,25 @@
       <c r="L12" t="s">
         <v>451</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>242</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>334</v>
@@ -22923,25 +23547,25 @@
       <c r="L13" t="s">
         <v>487</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>247</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>319</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -22958,22 +23582,22 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>243</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -22987,22 +23611,22 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>244</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>378</v>
@@ -23016,19 +23640,19 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>245</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>379</v>
@@ -23039,16 +23663,16 @@
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>423</v>
@@ -23059,13 +23683,13 @@
       <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -23076,13 +23700,13 @@
       <c r="J19" t="s">
         <v>485</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -23093,13 +23717,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -23110,13 +23734,13 @@
       <c r="J21" t="s">
         <v>385</v>
       </c>
-      <c r="V21" t="s">
-        <v>101</v>
+      <c r="W21" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
         <v>314</v>
@@ -23127,13 +23751,13 @@
       <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -23144,13 +23768,13 @@
       <c r="J23" t="s">
         <v>450</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>460</v>
@@ -23161,13 +23785,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
@@ -23178,13 +23802,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
@@ -23192,13 +23816,13 @@
       <c r="F26" t="s">
         <v>275</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="D27" t="s">
         <v>483</v>
@@ -23206,18 +23830,21 @@
       <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" t="s">
         <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -23228,7 +23855,7 @@
       <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -23239,7 +23866,7 @@
       <c r="F30" t="s">
         <v>210</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -23250,7 +23877,7 @@
       <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -23261,7 +23888,7 @@
       <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23272,7 +23899,7 @@
       <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -23283,7 +23910,7 @@
       <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -23294,7 +23921,7 @@
       <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -23305,7 +23932,7 @@
       <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>331</v>
       </c>
     </row>
@@ -23316,7 +23943,7 @@
       <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>437</v>
       </c>
     </row>
@@ -23324,7 +23951,7 @@
       <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>386</v>
       </c>
     </row>
@@ -23332,7 +23959,7 @@
       <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -23340,7 +23967,7 @@
       <c r="F40" t="s">
         <v>206</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23348,7 +23975,7 @@
       <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -23356,7 +23983,7 @@
       <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23364,7 +23991,7 @@
       <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23372,7 +23999,7 @@
       <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23380,7 +24007,7 @@
       <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>452</v>
       </c>
     </row>
@@ -23388,7 +24015,7 @@
       <c r="F46" t="s">
         <v>205</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>207</v>
       </c>
     </row>
@@ -23396,7 +24023,7 @@
       <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -23404,7 +24031,7 @@
       <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23412,7 +24039,7 @@
       <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23420,7 +24047,7 @@
       <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23428,475 +24055,485 @@
       <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="V51" t="s">
-        <v>478</v>
+      <c r="W51" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="V53" t="s">
-        <v>339</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="V54" t="s">
-        <v>471</v>
+      <c r="W54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="V62" t="s">
-        <v>448</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="V63" t="s">
-        <v>488</v>
+      <c r="W63" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="V64" t="s">
-        <v>208</v>
+      <c r="W64" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="V65" t="s">
-        <v>382</v>
+      <c r="W65" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="V66" t="s">
-        <v>453</v>
+      <c r="W66" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="V67" t="s">
-        <v>131</v>
+      <c r="W67" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="V68" t="s">
-        <v>132</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>401</v>
       </c>
-      <c r="V69" t="s">
-        <v>133</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="V70" t="s">
-        <v>134</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>402</v>
       </c>
-      <c r="V71" t="s">
-        <v>191</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="V72" t="s">
-        <v>192</v>
+      <c r="W72" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="V73" t="s">
-        <v>466</v>
+      <c r="W73" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="V74" t="s">
-        <v>482</v>
+      <c r="W74" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="V75" t="s">
-        <v>135</v>
+      <c r="W75" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="V76" t="s">
-        <v>136</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>425</v>
       </c>
-      <c r="V77" t="s">
-        <v>137</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="V78" t="s">
-        <v>138</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="V79" t="s">
-        <v>139</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="V80" t="s">
-        <v>193</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="V81" t="s">
-        <v>194</v>
+      <c r="W81" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="V82" t="s">
-        <v>465</v>
+      <c r="W82" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="V83" t="s">
-        <v>195</v>
+      <c r="W83" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="V84" t="s">
-        <v>196</v>
+      <c r="W84" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="V85" t="s">
-        <v>209</v>
+      <c r="W85" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="V86" t="s">
-        <v>140</v>
+      <c r="W86" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="V87" t="s">
-        <v>197</v>
+      <c r="W87" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="V88" t="s">
-        <v>439</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="V89" t="s">
-        <v>447</v>
+      <c r="W89" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="V90" t="s">
-        <v>198</v>
+      <c r="W90" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="V91" t="s">
-        <v>199</v>
+      <c r="W91" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17129" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17622" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1568,7 +1568,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="559" x14ac:knownFonts="1">
+  <fonts count="575" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5083,8 +5083,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="975">
+  <fills count="1002">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10605,8 +10706,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1010">
+  <borders count="1038">
     <border>
       <left/>
       <right/>
@@ -10628,6 +10882,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20787,7 +21323,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="572">
+  <cellXfs count="588">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22462,52 +22998,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="950" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="989" fillId="950" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="953" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="993" fillId="953" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="956" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="956" fontId="546" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="959" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="959" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="962" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="965" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="968" borderId="1005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="555" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1001" fillId="965" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1005" fillId="968" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="971" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="971" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="974" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="977" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="980" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="983" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="986" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="992" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="995" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,38 +13,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17622" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18625" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1561,6 +1562,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1599,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="575" x14ac:knownFonts="1">
+  <fonts count="607" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5184,8 +5215,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1002">
+  <fills count="1056">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10859,8 +11092,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1038">
+  <borders count="1094">
     <border>
       <left/>
       <right/>
@@ -10882,6 +11421,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21323,7 +22426,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="620">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23046,52 +24149,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="977" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1017" fillId="977" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="980" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1021" fillId="980" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="983" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="983" fontId="562" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="986" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="986" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="989" fontId="565" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="992" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="995" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1029" fillId="992" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1033" fillId="995" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1037" fillId="998" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1037" fillId="998" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1001" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1045" fillId="1004" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1049" fillId="1007" fontId="577" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1053" fillId="1010" fontId="578" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1053" fillId="1013" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1016" fontId="581" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1057" fillId="1019" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1061" fillId="1022" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="1025" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="1025" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1028" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1031" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1034" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1037" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1040" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1046" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1049" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23389,7 +24588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -23409,78 +24608,81 @@
         <v>472</v>
       </c>
       <c r="D1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>326</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>248</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>387</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>420</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>421</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>388</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>422</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -23495,79 +24697,82 @@
         <v>477</v>
       </c>
       <c r="D2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>461</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>481</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>377</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>426</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>493</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>427</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>428</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>211</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>389</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>432</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>433</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>374</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>398</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>164</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>441</v>
       </c>
-      <c r="AB2" t="s">
-        <v>221</v>
+      <c r="AC2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="3">
@@ -23581,1543 +24786,1570 @@
         <v>474</v>
       </c>
       <c r="D3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" t="s">
         <v>469</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>491</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>327</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>494</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>429</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>212</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>390</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>434</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>375</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>399</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>357</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" t="s">
-        <v>222</v>
+      <c r="AC3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
       <c r="D4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>380</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>462</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>492</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>343</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>231</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>328</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>495</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>213</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>391</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>435</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>351</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>400</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>347</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>442</v>
       </c>
-      <c r="AB4" t="s">
-        <v>223</v>
+      <c r="AC4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
       <c r="D5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" t="s">
         <v>470</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>449</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>329</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>467</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>344</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>475</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>214</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>392</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>436</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>352</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>348</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>167</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>443</v>
       </c>
-      <c r="AB5" t="s">
-        <v>224</v>
+      <c r="AC5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>381</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>459</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>341</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>236</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>384</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>393</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>354</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>455</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>444</v>
       </c>
-      <c r="AB6" t="s">
-        <v>225</v>
+      <c r="AC6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>458</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>431</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>394</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>353</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>92</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>456</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>174</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>445</v>
       </c>
-      <c r="AB7" t="s">
-        <v>226</v>
+      <c r="AC7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>311</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>360</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>321</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>83</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>238</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>395</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>355</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>175</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>446</v>
       </c>
-      <c r="AB8" t="s">
-        <v>227</v>
+      <c r="AC8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>299</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>239</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>396</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>356</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>203</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" t="s">
-        <v>489</v>
+      <c r="AC9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>308</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>345</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>463</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>383</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>430</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>240</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>397</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>250</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>183</v>
       </c>
-      <c r="AB10" t="s">
-        <v>490</v>
+      <c r="AC10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>249</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>267</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>315</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>486</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>241</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>251</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>252</v>
       </c>
-      <c r="AB11" t="s">
-        <v>228</v>
+      <c r="AC11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
         <v>312</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>256</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>242</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="AB12" t="s">
-        <v>229</v>
+      <c r="AC12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>334</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>317</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>487</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>247</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>319</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" t="s">
-        <v>230</v>
+      <c r="AC13" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>243</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>186</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>258</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>468</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>244</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>187</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>310</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>75</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>245</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>188</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
         <v>379</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>97</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>476</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>423</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>373</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>485</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>421</v>
-      </c>
-      <c r="D20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>291</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" t="s">
         <v>314</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>292</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>283</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>450</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>460</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>272</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>218</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>219</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>275</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>483</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>259</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E28" t="s">
+        <v>484</v>
+      </c>
+      <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>220</v>
       </c>
-      <c r="D28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F28" t="s">
-        <v>276</v>
-      </c>
-      <c r="W28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>424</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>253</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>323</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>300</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>254</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>63</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>301</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>260</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>70</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>206</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>282</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>293</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>294</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>336</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>335</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>205</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>313</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>332</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>361</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>295</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>349</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>324</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>261</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>285</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>286</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>287</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>330</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>303</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>362</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>363</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>338</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>306</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>262</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>307</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>401</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>297</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>402</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>255</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>337</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>279</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>284</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>425</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>263</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>274</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>280</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>269</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>264</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>265</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>266</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>298</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>304</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>333</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>270</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>271</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
     <definedName name="sound">'#system'!$U$2:$U$5</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18625" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19133" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1592,6 +1592,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="607" x14ac:knownFonts="1">
+  <fonts count="623" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5417,8 +5429,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1056">
+  <fills count="1083">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11398,8 +11511,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1094">
+  <borders count="1122">
     <border>
       <left/>
       <right/>
@@ -11421,6 +11687,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22426,7 +22974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="620">
+  <cellXfs count="636">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24245,52 +24793,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1031" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1073" fillId="1031" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1034" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1077" fillId="1034" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1037" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1081" fillId="1037" fontId="594" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1040" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1081" fillId="1040" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="596" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1043" fontId="597" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="1046" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="1049" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1085" fillId="1046" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1089" fillId="1049" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1093" fillId="1052" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1093" fillId="1052" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1055" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1058" borderId="1101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1061" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1064" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1067" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1070" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1073" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1076" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1082" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24588,7 +25184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -25358,7 +25954,7 @@
         <v>185</v>
       </c>
       <c r="AC13" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -25393,7 +25989,7 @@
         <v>186</v>
       </c>
       <c r="AC14" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15">
@@ -25425,7 +26021,7 @@
         <v>187</v>
       </c>
       <c r="AC15" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
@@ -25454,7 +26050,7 @@
         <v>188</v>
       </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17">
@@ -25477,7 +26073,7 @@
         <v>476</v>
       </c>
       <c r="AC17" t="s">
-        <v>229</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18">
@@ -25497,7 +26093,7 @@
         <v>98</v>
       </c>
       <c r="AC18" t="s">
-        <v>230</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
@@ -25516,6 +26112,9 @@
       <c r="X19" t="s">
         <v>99</v>
       </c>
+      <c r="AC19" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -25533,6 +26132,9 @@
       <c r="X20" t="s">
         <v>100</v>
       </c>
+      <c r="AC20" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -25550,6 +26152,9 @@
       <c r="X21" t="s">
         <v>496</v>
       </c>
+      <c r="AC21" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -26096,7 +26701,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80">
@@ -26104,7 +26709,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -26112,7 +26717,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -26120,7 +26725,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83">
@@ -26128,7 +26733,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84">
@@ -26136,7 +26741,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -26144,7 +26749,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86">
@@ -26152,7 +26757,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
@@ -26160,7 +26765,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -26168,7 +26773,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -26176,7 +26781,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -26184,7 +26789,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -26192,7 +26797,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92">
@@ -26200,156 +26805,161 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -28,14 +28,14 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19133" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20152" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1604,6 +1604,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="623" x14ac:knownFonts="1">
+  <fonts count="655" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5530,8 +5539,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1083">
+  <fills count="1137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11664,8 +11875,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1122">
+  <borders count="1178">
     <border>
       <left/>
       <right/>
@@ -11687,6 +12204,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22974,7 +24055,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="668">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24841,52 +25922,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1058" borderId="1101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1101" fillId="1058" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1061" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1105" fillId="1061" fontId="609" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1064" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1109" fillId="1064" fontId="610" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1067" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1109" fillId="1067" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1070" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1070" fontId="613" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1073" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1076" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1082" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1113" fillId="1073" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1117" fillId="1076" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1121" fillId="1079" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1121" fillId="1079" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1067" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1082" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1067" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1129" fillId="1085" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1133" fillId="1088" fontId="625" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1137" fillId="1091" fontId="626" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1137" fillId="1094" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="628" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1097" fontId="629" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1141" fillId="1100" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1145" fillId="1103" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1149" fillId="1106" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1149" fillId="1106" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1094" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1109" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1094" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1112" borderId="1157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1115" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1118" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1121" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1127" borderId="1169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1130" borderId="1173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25184,7 +26361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -26009,7 +27186,7 @@
         <v>33</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>513</v>
       </c>
       <c r="Q15" t="s">
         <v>244</v>
@@ -26040,6 +27217,9 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
+      <c r="P16" t="s">
+        <v>514</v>
+      </c>
       <c r="Q16" t="s">
         <v>245</v>
       </c>
@@ -26067,7 +27247,7 @@
         <v>76</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>515</v>
       </c>
       <c r="AA17" t="s">
         <v>476</v>
@@ -26090,7 +27270,7 @@
         <v>373</v>
       </c>
       <c r="X18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC18" t="s">
         <v>512</v>
@@ -26110,7 +27290,7 @@
         <v>485</v>
       </c>
       <c r="X19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s">
         <v>228</v>
@@ -26130,7 +27310,7 @@
         <v>37</v>
       </c>
       <c r="X20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC20" t="s">
         <v>229</v>
@@ -26150,7 +27330,7 @@
         <v>385</v>
       </c>
       <c r="X21" t="s">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
         <v>230</v>
@@ -26170,7 +27350,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23">
@@ -26187,7 +27367,7 @@
         <v>450</v>
       </c>
       <c r="X23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -26204,7 +27384,7 @@
         <v>38</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -26221,7 +27401,7 @@
         <v>39</v>
       </c>
       <c r="X25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -26235,7 +27415,7 @@
         <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -26249,7 +27429,7 @@
         <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -26263,7 +27443,7 @@
         <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29">
@@ -26277,7 +27457,7 @@
         <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -26288,7 +27468,7 @@
         <v>210</v>
       </c>
       <c r="X30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -26299,7 +27479,7 @@
         <v>268</v>
       </c>
       <c r="X31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -26310,7 +27490,7 @@
         <v>278</v>
       </c>
       <c r="X32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -26321,7 +27501,7 @@
         <v>253</v>
       </c>
       <c r="X33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -26332,7 +27512,7 @@
         <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -26343,7 +27523,7 @@
         <v>300</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36">
@@ -26354,7 +27534,7 @@
         <v>254</v>
       </c>
       <c r="X36" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -26365,7 +27545,7 @@
         <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -26373,7 +27553,7 @@
         <v>260</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39">
@@ -26381,7 +27561,7 @@
         <v>70</v>
       </c>
       <c r="X39" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40">
@@ -26389,7 +27569,7 @@
         <v>206</v>
       </c>
       <c r="X40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -26397,7 +27577,7 @@
         <v>282</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -26405,7 +27585,7 @@
         <v>293</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -26413,7 +27593,7 @@
         <v>294</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -26421,7 +27601,7 @@
         <v>336</v>
       </c>
       <c r="X44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -26429,7 +27609,7 @@
         <v>335</v>
       </c>
       <c r="X45" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -26437,7 +27617,7 @@
         <v>205</v>
       </c>
       <c r="X46" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47">
@@ -26445,7 +27625,7 @@
         <v>313</v>
       </c>
       <c r="X47" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -26453,7 +27633,7 @@
         <v>332</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -26461,7 +27641,7 @@
         <v>361</v>
       </c>
       <c r="X49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -26469,7 +27649,7 @@
         <v>295</v>
       </c>
       <c r="X50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -26477,7 +27657,7 @@
         <v>349</v>
       </c>
       <c r="X51" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -26485,7 +27665,7 @@
         <v>324</v>
       </c>
       <c r="X52" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53">
@@ -26493,7 +27673,7 @@
         <v>261</v>
       </c>
       <c r="X53" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54">
@@ -26501,7 +27681,7 @@
         <v>285</v>
       </c>
       <c r="X54" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -26509,7 +27689,7 @@
         <v>286</v>
       </c>
       <c r="X55" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
@@ -26517,7 +27697,7 @@
         <v>287</v>
       </c>
       <c r="X56" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57">
@@ -26525,7 +27705,7 @@
         <v>296</v>
       </c>
       <c r="X57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -26533,7 +27713,7 @@
         <v>305</v>
       </c>
       <c r="X58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -26541,7 +27721,7 @@
         <v>330</v>
       </c>
       <c r="X59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -26549,7 +27729,7 @@
         <v>302</v>
       </c>
       <c r="X60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -26557,7 +27737,7 @@
         <v>303</v>
       </c>
       <c r="X61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -26565,7 +27745,7 @@
         <v>362</v>
       </c>
       <c r="X62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -26573,7 +27753,7 @@
         <v>363</v>
       </c>
       <c r="X63" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -26581,7 +27761,7 @@
         <v>338</v>
       </c>
       <c r="X64" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -26589,7 +27769,7 @@
         <v>306</v>
       </c>
       <c r="X65" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66">
@@ -26597,7 +27777,7 @@
         <v>262</v>
       </c>
       <c r="X66" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67">
@@ -26605,7 +27785,7 @@
         <v>346</v>
       </c>
       <c r="X67" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68">
@@ -26613,7 +27793,7 @@
         <v>307</v>
       </c>
       <c r="X68" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
@@ -26621,7 +27801,7 @@
         <v>401</v>
       </c>
       <c r="X69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
@@ -26629,7 +27809,7 @@
         <v>297</v>
       </c>
       <c r="X70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -26637,7 +27817,7 @@
         <v>402</v>
       </c>
       <c r="X71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
@@ -26645,7 +27825,7 @@
         <v>255</v>
       </c>
       <c r="X72" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
@@ -26653,7 +27833,7 @@
         <v>337</v>
       </c>
       <c r="X73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
@@ -26661,7 +27841,7 @@
         <v>273</v>
       </c>
       <c r="X74" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
@@ -26669,7 +27849,7 @@
         <v>279</v>
       </c>
       <c r="X75" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76">
@@ -26677,7 +27857,7 @@
         <v>284</v>
       </c>
       <c r="X76" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77">
@@ -26685,7 +27865,7 @@
         <v>425</v>
       </c>
       <c r="X77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
@@ -26693,7 +27873,7 @@
         <v>325</v>
       </c>
       <c r="X78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
@@ -26701,7 +27881,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
@@ -26709,7 +27889,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81">
@@ -26717,7 +27897,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -26725,7 +27905,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -26733,7 +27913,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -26741,7 +27921,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85">
@@ -26749,7 +27929,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
@@ -26757,7 +27937,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87">
@@ -26765,7 +27945,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -26773,7 +27953,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -26781,7 +27961,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -26789,7 +27969,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
@@ -26797,7 +27977,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -26805,161 +27985,166 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20152" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20667" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1613,6 +1613,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1635,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="655" x14ac:knownFonts="1">
+  <fonts count="671" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5741,8 +5756,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1137">
+  <fills count="1164">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12181,8 +12297,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1178">
+  <borders count="1206">
     <border>
       <left/>
       <right/>
@@ -12204,6 +12473,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24055,7 +24606,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="668">
+  <cellXfs count="684">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26018,52 +26569,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1112" borderId="1157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1157" fillId="1112" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1115" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1161" fillId="1115" fontId="641" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1118" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1165" fillId="1118" fontId="642" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1121" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1165" fillId="1121" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1124" fontId="645" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="1127" borderId="1169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="1130" borderId="1173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="651" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1136" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1169" fillId="1127" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1173" fillId="1130" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1177" fillId="1133" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1177" fillId="1133" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1121" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1136" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1121" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1139" borderId="1185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1142" borderId="1189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1145" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1148" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1154" borderId="1197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1157" borderId="1201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26361,7 +26960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -26789,6 +27388,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
       <c r="G6" t="s">
         <v>381</v>
       </c>
@@ -26911,7 +27513,7 @@
         <v>321</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -26964,7 +27566,7 @@
         <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -27005,7 +27607,7 @@
         <v>463</v>
       </c>
       <c r="K10" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -27043,7 +27645,7 @@
         <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>518</v>
       </c>
       <c r="M11" t="s">
         <v>486</v>
@@ -27078,7 +27680,7 @@
         <v>316</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
         <v>451</v>
@@ -27113,7 +27715,7 @@
         <v>317</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>487</v>
@@ -27148,7 +27750,7 @@
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
@@ -27180,7 +27782,7 @@
         <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="M15" t="s">
         <v>33</v>
@@ -27212,7 +27814,7 @@
         <v>310</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -27244,7 +27846,7 @@
         <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s">
         <v>515</v>
@@ -27267,7 +27869,7 @@
         <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="X18" t="s">
         <v>97</v>
@@ -27287,7 +27889,7 @@
         <v>289</v>
       </c>
       <c r="K19" t="s">
-        <v>485</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
         <v>98</v>
@@ -27307,7 +27909,7 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s">
         <v>99</v>
@@ -27327,7 +27929,7 @@
         <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="X21" t="s">
         <v>100</v>
@@ -27347,7 +27949,7 @@
         <v>292</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="X22" t="s">
         <v>496</v>
@@ -27364,7 +27966,7 @@
         <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>102</v>
@@ -27381,7 +27983,7 @@
         <v>272</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="X24" t="s">
         <v>103</v>
@@ -27398,7 +28000,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s">
         <v>104</v>
@@ -27414,6 +28016,9 @@
       <c r="G26" t="s">
         <v>275</v>
       </c>
+      <c r="K26" t="s">
+        <v>450</v>
+      </c>
       <c r="X26" t="s">
         <v>105</v>
       </c>
@@ -27428,6 +28033,9 @@
       <c r="G27" t="s">
         <v>259</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>106</v>
       </c>
@@ -27442,6 +28050,9 @@
       <c r="G28" t="s">
         <v>276</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>320</v>
       </c>
@@ -28025,126 +28636,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>520</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20667" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21184" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1628,6 +1628,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1641,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="671" x14ac:knownFonts="1">
+  <fonts count="687" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5857,8 +5863,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1164">
+  <fills count="1191">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12450,8 +12557,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1206">
+  <borders count="1234">
     <border>
       <left/>
       <right/>
@@ -12473,6 +12733,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24606,7 +25148,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="684">
+  <cellXfs count="700">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26617,52 +27159,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1139" borderId="1185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1185" fillId="1139" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1142" borderId="1189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1189" fillId="1142" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1145" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1193" fillId="1145" fontId="658" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1148" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1193" fillId="1148" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1151" fontId="661" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="1154" borderId="1197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="1157" borderId="1201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1197" fillId="1154" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1201" fillId="1157" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1205" fillId="1160" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1205" fillId="1160" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1148" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1163" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1148" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1166" borderId="1213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1169" borderId="1217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1172" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1175" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1181" borderId="1225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1184" borderId="1229" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28109,7 +28699,7 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>521</v>
       </c>
       <c r="X33" t="s">
         <v>111</v>
@@ -28120,7 +28710,7 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="X34" t="s">
         <v>112</v>
@@ -28131,7 +28721,7 @@
         <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="X35" t="s">
         <v>204</v>
@@ -28142,7 +28732,7 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="X36" t="s">
         <v>113</v>
@@ -28153,7 +28743,7 @@
         <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="X37" t="s">
         <v>331</v>
@@ -28161,7 +28751,7 @@
     </row>
     <row r="38">
       <c r="G38" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="X38" t="s">
         <v>437</v>
@@ -28169,7 +28759,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="X39" t="s">
         <v>386</v>
@@ -28177,7 +28767,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="X40" t="s">
         <v>114</v>
@@ -28185,7 +28775,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
@@ -28193,7 +28783,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -28201,7 +28791,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X43" t="s">
         <v>117</v>
@@ -28209,7 +28799,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="X44" t="s">
         <v>118</v>
@@ -28217,7 +28807,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X45" t="s">
         <v>119</v>
@@ -28225,7 +28815,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="X46" t="s">
         <v>452</v>
@@ -28233,7 +28823,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="X47" t="s">
         <v>207</v>
@@ -28241,7 +28831,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="X48" t="s">
         <v>69</v>
@@ -28249,7 +28839,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="X49" t="s">
         <v>120</v>
@@ -28257,7 +28847,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="X50" t="s">
         <v>121</v>
@@ -28265,7 +28855,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
         <v>122</v>
@@ -28273,7 +28863,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="X52" t="s">
         <v>497</v>
@@ -28281,7 +28871,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="X53" t="s">
         <v>478</v>
@@ -28289,7 +28879,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="X54" t="s">
         <v>123</v>
@@ -28297,7 +28887,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X55" t="s">
         <v>339</v>
@@ -28305,7 +28895,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s">
         <v>471</v>
@@ -28313,7 +28903,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s">
         <v>124</v>
@@ -28321,7 +28911,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="X58" t="s">
         <v>125</v>
@@ -28329,7 +28919,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="X59" t="s">
         <v>126</v>
@@ -28337,7 +28927,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="X60" t="s">
         <v>127</v>
@@ -28345,7 +28935,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s">
         <v>128</v>
@@ -28353,7 +28943,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="X62" t="s">
         <v>129</v>
@@ -28361,7 +28951,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X63" t="s">
         <v>130</v>
@@ -28369,7 +28959,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="X64" t="s">
         <v>448</v>
@@ -28377,7 +28967,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X65" t="s">
         <v>488</v>
@@ -28385,7 +28975,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="X66" t="s">
         <v>208</v>
@@ -28393,7 +28983,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="X67" t="s">
         <v>382</v>
@@ -28401,7 +28991,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="X68" t="s">
         <v>453</v>
@@ -28409,7 +28999,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="X69" t="s">
         <v>131</v>
@@ -28417,7 +29007,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="X70" t="s">
         <v>132</v>
@@ -28425,7 +29015,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="X71" t="s">
         <v>133</v>
@@ -28433,7 +29023,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="X72" t="s">
         <v>134</v>
@@ -28441,7 +29031,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="X73" t="s">
         <v>191</v>
@@ -28449,7 +29039,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>273</v>
+        <v>522</v>
       </c>
       <c r="X74" t="s">
         <v>192</v>
@@ -28457,7 +29047,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="X75" t="s">
         <v>466</v>
@@ -28465,7 +29055,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="X76" t="s">
         <v>482</v>
@@ -28473,7 +29063,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="X77" t="s">
         <v>135</v>
@@ -28481,7 +29071,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="X78" t="s">
         <v>136</v>
@@ -28489,7 +29079,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="X79" t="s">
         <v>137</v>
@@ -28497,7 +29087,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="X80" t="s">
         <v>509</v>
@@ -28505,7 +29095,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="X81" t="s">
         <v>138</v>
@@ -28513,7 +29103,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="X82" t="s">
         <v>139</v>
@@ -28521,7 +29111,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="X83" t="s">
         <v>193</v>
@@ -28529,7 +29119,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="X84" t="s">
         <v>498</v>
@@ -28537,7 +29127,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X85" t="s">
         <v>194</v>
@@ -28545,7 +29135,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="X86" t="s">
         <v>465</v>
@@ -28553,7 +29143,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="X87" t="s">
         <v>195</v>
@@ -28561,7 +29151,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="X88" t="s">
         <v>196</v>
@@ -28569,7 +29159,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="X89" t="s">
         <v>209</v>
@@ -28577,7 +29167,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="X90" t="s">
         <v>140</v>
@@ -28585,7 +29175,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="X91" t="s">
         <v>197</v>
@@ -28593,18 +29183,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="X92" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
       <c r="X93" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
       <c r="X94" t="s">
         <v>198</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21184" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21703" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1634,6 +1634,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="687" x14ac:knownFonts="1">
+  <fonts count="703" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5964,8 +5970,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1191">
+  <fills count="1221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12710,8 +12817,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1234">
+  <borders count="1262">
     <border>
       <left/>
       <right/>
@@ -12733,6 +13010,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25148,7 +25707,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="700">
+  <cellXfs count="716">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27207,52 +27766,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1166" borderId="1213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1213" fillId="1166" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1169" borderId="1217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1217" fillId="1169" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1172" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1221" fillId="1172" fontId="674" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1175" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1221" fillId="1175" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="676" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1178" fontId="677" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1181" borderId="1225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1184" borderId="1229" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1190" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1225" fillId="1181" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1229" fillId="1184" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1233" fillId="1187" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1233" fillId="1187" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1175" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1190" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1175" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1193" borderId="1241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1196" borderId="1245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1199" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1202" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1208" borderId="1253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1211" borderId="1257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1220" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27550,7 +28157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -29237,126 +29844,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>454</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -24,28 +24,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21703" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22230" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1640,6 +1641,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1669,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="703" x14ac:knownFonts="1">
+  <fonts count="719" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6071,8 +6093,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1221">
+  <fills count="1251">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12987,8 +13110,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1262">
+  <borders count="1290">
     <border>
       <left/>
       <right/>
@@ -13010,6 +13303,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25707,7 +26282,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="716">
+  <cellXfs count="732">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27814,52 +28389,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1193" borderId="1241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1241" fillId="1193" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1196" borderId="1245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1245" fillId="1196" fontId="689" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1199" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1249" fillId="1199" fontId="690" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1202" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1249" fillId="1202" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="692" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1205" fontId="693" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="1208" borderId="1253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="696" fillId="1211" borderId="1257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="697" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1217" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1253" fillId="1208" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1257" fillId="1211" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1261" fillId="1214" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1261" fillId="1214" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1202" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1217" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1202" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1220" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1223" borderId="1269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1226" borderId="1273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1229" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1232" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1238" borderId="1281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1241" borderId="1285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1250" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28157,7 +28780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -28207,51 +28830,54 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
+        <v>525</v>
+      </c>
+      <c r="O1" t="s">
         <v>248</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>232</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>387</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>420</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>421</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>388</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>422</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -28296,51 +28922,54 @@
         <v>426</v>
       </c>
       <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
         <v>493</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>427</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>428</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>246</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>211</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>389</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>432</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>433</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>374</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>398</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>441</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -28385,45 +29014,48 @@
         <v>78</v>
       </c>
       <c r="N3" t="s">
+        <v>527</v>
+      </c>
+      <c r="O3" t="s">
         <v>494</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>429</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>233</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>212</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>390</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>434</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>375</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>165</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>357</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -28465,45 +29097,48 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>528</v>
+      </c>
+      <c r="O4" t="s">
         <v>495</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>234</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>213</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>391</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>435</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>351</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>347</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>166</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>442</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -28538,40 +29173,43 @@
       <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q5" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>235</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>214</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>392</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>436</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>348</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>443</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -28603,37 +29241,40 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>236</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>384</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>393</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>455</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>173</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>444</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -28659,37 +29300,40 @@
       <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>237</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>431</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>394</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>456</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>174</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>445</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -28715,34 +29359,34 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>238</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>395</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>168</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>446</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -28768,25 +29412,25 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>239</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>396</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>203</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -28809,22 +29453,22 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>430</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>240</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>489</v>
       </c>
     </row>
@@ -28847,19 +29491,19 @@
       <c r="M11" t="s">
         <v>486</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>505</v>
       </c>
     </row>
@@ -28882,19 +29526,19 @@
       <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>506</v>
       </c>
     </row>
@@ -28917,25 +29561,25 @@
       <c r="M13" t="s">
         <v>487</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>525</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -28952,25 +29596,25 @@
       <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -28984,25 +29628,25 @@
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>513</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
         <v>378</v>
@@ -29016,25 +29660,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>514</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>379</v>
@@ -29045,19 +29689,19 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>515</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>476</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
         <v>423</v>
@@ -29068,16 +29712,16 @@
       <c r="K18" t="s">
         <v>468</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -29088,16 +29732,16 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -29108,16 +29752,16 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -29128,16 +29772,16 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="E22" t="s">
         <v>314</v>
@@ -29148,13 +29792,13 @@
       <c r="K22" t="s">
         <v>485</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
@@ -29165,13 +29809,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
         <v>460</v>
@@ -29182,13 +29826,13 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>218</v>
@@ -29199,13 +29843,13 @@
       <c r="K25" t="s">
         <v>77</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>219</v>
@@ -29216,13 +29860,13 @@
       <c r="K26" t="s">
         <v>450</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>483</v>
@@ -29233,13 +29877,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>484</v>
@@ -29250,13 +29894,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E29" t="s">
         <v>424</v>
@@ -29264,18 +29908,21 @@
       <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
       <c r="E30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -29286,7 +29933,7 @@
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -29297,7 +29944,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -29308,7 +29955,7 @@
       <c r="G33" t="s">
         <v>521</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -29319,7 +29966,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -29330,7 +29977,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>204</v>
       </c>
     </row>
@@ -29341,7 +29988,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29352,7 +29999,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -29360,7 +30007,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -29368,7 +30015,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>386</v>
       </c>
     </row>
@@ -29376,7 +30023,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -29384,7 +30031,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -29392,7 +30039,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -29400,7 +30047,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -29408,7 +30055,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -29416,7 +30063,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -29424,7 +30071,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>452</v>
       </c>
     </row>
@@ -29432,7 +30079,7 @@
       <c r="G47" t="s">
         <v>205</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>207</v>
       </c>
     </row>
@@ -29440,7 +30087,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -29448,7 +30095,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>120</v>
       </c>
     </row>
@@ -29456,7 +30103,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>121</v>
       </c>
     </row>
@@ -29464,7 +30111,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -29472,7 +30119,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>497</v>
       </c>
     </row>
@@ -29480,7 +30127,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>478</v>
       </c>
     </row>
@@ -29488,7 +30135,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>123</v>
       </c>
     </row>
@@ -29496,7 +30143,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>339</v>
       </c>
     </row>
@@ -29504,7 +30151,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>471</v>
       </c>
     </row>
@@ -29512,7 +30159,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>124</v>
       </c>
     </row>
@@ -29520,7 +30167,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>125</v>
       </c>
     </row>
@@ -29528,7 +30175,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29536,7 +30183,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29544,7 +30191,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>128</v>
       </c>
     </row>
@@ -29552,7 +30199,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -29560,7 +30207,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29568,7 +30215,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>448</v>
       </c>
     </row>
@@ -29576,7 +30223,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>488</v>
       </c>
     </row>
@@ -29584,7 +30231,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>208</v>
       </c>
     </row>
@@ -29592,7 +30239,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>382</v>
       </c>
     </row>
@@ -29600,7 +30247,7 @@
       <c r="G68" t="s">
         <v>346</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>453</v>
       </c>
     </row>
@@ -29608,7 +30255,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -29616,7 +30263,7 @@
       <c r="G70" t="s">
         <v>401</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -29624,7 +30271,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>133</v>
       </c>
     </row>
@@ -29632,7 +30279,7 @@
       <c r="G72" t="s">
         <v>402</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>134</v>
       </c>
     </row>
@@ -29640,7 +30287,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>191</v>
       </c>
     </row>
@@ -29648,7 +30295,7 @@
       <c r="G74" t="s">
         <v>522</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>192</v>
       </c>
     </row>
@@ -29656,7 +30303,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>466</v>
       </c>
     </row>
@@ -29664,7 +30311,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>482</v>
       </c>
     </row>
@@ -29672,7 +30319,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>135</v>
       </c>
     </row>
@@ -29680,7 +30327,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>136</v>
       </c>
     </row>
@@ -29688,7 +30335,7 @@
       <c r="G79" t="s">
         <v>425</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>137</v>
       </c>
     </row>
@@ -29696,7 +30343,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>509</v>
       </c>
     </row>
@@ -29704,7 +30351,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29712,7 +30359,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -29720,7 +30367,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>193</v>
       </c>
     </row>
@@ -29728,7 +30375,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>498</v>
       </c>
     </row>
@@ -29736,7 +30383,7 @@
       <c r="G85" t="s">
         <v>264</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>194</v>
       </c>
     </row>
@@ -29744,7 +30391,7 @@
       <c r="G86" t="s">
         <v>281</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>465</v>
       </c>
     </row>
@@ -29752,7 +30399,7 @@
       <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>195</v>
       </c>
     </row>
@@ -29760,7 +30407,7 @@
       <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -29768,7 +30415,7 @@
       <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>209</v>
       </c>
     </row>
@@ -29776,7 +30423,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>140</v>
       </c>
     </row>
@@ -29784,7 +30431,7 @@
       <c r="G91" t="s">
         <v>288</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>197</v>
       </c>
     </row>
@@ -29792,7 +30439,7 @@
       <c r="G92" t="s">
         <v>333</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>439</v>
       </c>
     </row>
@@ -29800,7 +30447,7 @@
       <c r="G93" t="s">
         <v>270</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>447</v>
       </c>
     </row>
@@ -29808,172 +30455,172 @@
       <c r="G94" t="s">
         <v>271</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,7 +46,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22230" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23291" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1662,6 +1662,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="719" x14ac:knownFonts="1">
+  <fonts count="751" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6194,8 +6206,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1251">
+  <fills count="1311">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13280,8 +13494,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1290">
+  <borders count="1346">
     <border>
       <left/>
       <right/>
@@ -13303,6 +13857,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26282,7 +27400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="732">
+  <cellXfs count="764">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28437,52 +29555,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1220" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1223" borderId="1269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1269" fillId="1223" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1226" borderId="1273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1273" fillId="1226" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1229" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1277" fillId="1229" fontId="706" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="1232" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1277" fillId="1232" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="708" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="1235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1235" fontId="709" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1238" borderId="1281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1241" borderId="1285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="1247" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="717" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="718" fillId="1250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1281" fillId="1238" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1285" fillId="1241" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1289" fillId="1244" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1289" fillId="1244" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1232" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1247" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1232" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1250" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1297" fillId="1253" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1301" fillId="1256" fontId="721" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1305" fillId="1259" fontId="722" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1305" fillId="1262" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1265" fontId="725" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1309" fillId="1268" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1313" fillId="1271" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1317" fillId="1274" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1317" fillId="1274" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1262" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1277" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1262" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1280" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1283" borderId="1325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1286" borderId="1329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1289" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1292" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1298" borderId="1337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1301" borderId="1341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1307" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1310" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29174,7 +30388,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -29242,7 +30456,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -29301,7 +30515,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -29359,6 +30573,9 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
+      <c r="N8" t="s">
+        <v>529</v>
+      </c>
       <c r="Q8" t="s">
         <v>83</v>
       </c>
@@ -29412,6 +30629,9 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
+      <c r="N9" t="s">
+        <v>530</v>
+      </c>
       <c r="Q9" t="s">
         <v>84</v>
       </c>
@@ -29453,6 +30673,9 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
+      <c r="N10" t="s">
+        <v>531</v>
+      </c>
       <c r="Q10" t="s">
         <v>430</v>
       </c>
@@ -29841,7 +31064,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>
@@ -29858,7 +31081,7 @@
         <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s">
         <v>105</v>
@@ -29875,7 +31098,7 @@
         <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="Y27" t="s">
         <v>106</v>
@@ -29892,7 +31115,7 @@
         <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>320</v>
@@ -29907,6 +31130,9 @@
       </c>
       <c r="G29" t="s">
         <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>107</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -45,8 +45,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23291" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23825" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1674,6 +1674,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1693,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="751" x14ac:knownFonts="1">
+  <fonts count="767" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6408,8 +6420,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1311">
+  <fills count="1341">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13834,8 +13947,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1346">
+  <borders count="1374">
     <border>
       <left/>
       <right/>
@@ -13857,6 +14140,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27400,7 +27965,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="764">
+  <cellXfs count="780">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29651,52 +30216,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1280" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1283" borderId="1325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1325" fillId="1283" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1286" borderId="1329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1329" fillId="1286" fontId="737" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1289" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1333" fillId="1289" fontId="738" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1292" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1333" fillId="1292" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="740" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1295" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="743" fillId="1298" borderId="1337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="744" fillId="1301" borderId="1341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="745" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1307" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1310" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1337" fillId="1298" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1341" fillId="1301" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1345" fillId="1304" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1345" fillId="1304" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1292" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1307" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1292" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1310" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1313" borderId="1353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1316" borderId="1357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1319" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1322" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1328" borderId="1365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1331" borderId="1369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1340" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30198,7 +30811,7 @@
         <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
         <v>469</v>
@@ -30281,7 +30894,7 @@
         <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -30364,7 +30977,7 @@
         <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" t="s">
         <v>470</v>
@@ -30388,7 +31001,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -30434,6 +31047,9 @@
       <c r="B6" t="s">
         <v>369</v>
       </c>
+      <c r="D6" t="s">
+        <v>503</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -30456,7 +31072,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -30515,7 +31131,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -30574,7 +31190,7 @@
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q8" t="s">
         <v>83</v>
@@ -30630,7 +31246,7 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q9" t="s">
         <v>84</v>
@@ -30674,7 +31290,7 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q10" t="s">
         <v>430</v>
@@ -30714,6 +31330,9 @@
       <c r="M11" t="s">
         <v>486</v>
       </c>
+      <c r="N11" t="s">
+        <v>530</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -30749,6 +31368,9 @@
       <c r="M12" t="s">
         <v>451</v>
       </c>
+      <c r="N12" t="s">
+        <v>531</v>
+      </c>
       <c r="Q12" t="s">
         <v>34</v>
       </c>
@@ -31064,7 +31686,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -19,7 +19,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23825" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24361" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1686,6 +1686,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="767" x14ac:knownFonts="1">
+  <fonts count="783" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6521,8 +6527,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1341">
+  <fills count="1371">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14117,8 +14224,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1374">
+  <borders count="1402">
     <border>
       <left/>
       <right/>
@@ -14140,6 +14417,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27965,7 +28524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="780">
+  <cellXfs count="796">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30264,52 +30823,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1310" fontId="750" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1313" borderId="1353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1353" fillId="1313" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1316" borderId="1357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1357" fillId="1316" fontId="753" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1319" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1361" fillId="1319" fontId="754" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1322" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1361" fillId="1322" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="756" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="1325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1325" fontId="757" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="1328" borderId="1365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="760" fillId="1331" borderId="1369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="761" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="1337" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="1340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1365" fillId="1328" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1369" fillId="1331" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1373" fillId="1334" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1373" fillId="1334" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1322" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1337" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1322" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1340" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1343" borderId="1381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1346" borderId="1385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1349" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1352" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1358" borderId="1393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1361" borderId="1397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1370" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30607,7 +31214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -30991,6 +31598,9 @@
       <c r="H5" t="s">
         <v>467</v>
       </c>
+      <c r="I5" t="s">
+        <v>540</v>
+      </c>
       <c r="J5" t="s">
         <v>344</v>
       </c>
@@ -31864,7 +32474,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>386</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40">
@@ -31872,7 +32482,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
@@ -31880,7 +32490,7 @@
         <v>206</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -31888,7 +32498,7 @@
         <v>282</v>
       </c>
       <c r="Y42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -31896,7 +32506,7 @@
         <v>293</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -31904,7 +32514,7 @@
         <v>294</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -31912,7 +32522,7 @@
         <v>336</v>
       </c>
       <c r="Y45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -31920,7 +32530,7 @@
         <v>335</v>
       </c>
       <c r="Y46" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -31928,7 +32538,7 @@
         <v>205</v>
       </c>
       <c r="Y47" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48">
@@ -31936,7 +32546,7 @@
         <v>313</v>
       </c>
       <c r="Y48" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49">
@@ -31944,7 +32554,7 @@
         <v>332</v>
       </c>
       <c r="Y49" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -31952,7 +32562,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -31960,7 +32570,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -31968,7 +32578,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -31976,7 +32586,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54">
@@ -31984,7 +32594,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
@@ -31992,7 +32602,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -32000,7 +32610,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
@@ -32008,7 +32618,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
@@ -32016,7 +32626,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -32024,7 +32634,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -32032,7 +32642,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -32040,7 +32650,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -32048,7 +32658,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -32056,7 +32666,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -32064,7 +32674,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -32072,7 +32682,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66">
@@ -32080,7 +32690,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67">
@@ -32088,7 +32698,7 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
@@ -32096,7 +32706,7 @@
         <v>346</v>
       </c>
       <c r="Y68" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69">
@@ -32104,7 +32714,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70">
@@ -32112,7 +32722,7 @@
         <v>401</v>
       </c>
       <c r="Y70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
@@ -32120,7 +32730,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -32128,7 +32738,7 @@
         <v>402</v>
       </c>
       <c r="Y72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -32136,7 +32746,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
@@ -32144,7 +32754,7 @@
         <v>522</v>
       </c>
       <c r="Y74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75">
@@ -32152,7 +32762,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
@@ -32160,7 +32770,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77">
@@ -32168,7 +32778,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
@@ -32176,7 +32786,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -32184,7 +32794,7 @@
         <v>425</v>
       </c>
       <c r="Y79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -32192,7 +32802,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
@@ -32200,7 +32810,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82">
@@ -32208,7 +32818,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -32216,7 +32826,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -32224,7 +32834,7 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
@@ -32232,7 +32842,7 @@
         <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86">
@@ -32240,7 +32850,7 @@
         <v>281</v>
       </c>
       <c r="Y86" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87">
@@ -32248,7 +32858,7 @@
         <v>265</v>
       </c>
       <c r="Y87" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88">
@@ -32256,7 +32866,7 @@
         <v>266</v>
       </c>
       <c r="Y88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -32264,7 +32874,7 @@
         <v>298</v>
       </c>
       <c r="Y89" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -32272,7 +32882,7 @@
         <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -32280,7 +32890,7 @@
         <v>288</v>
       </c>
       <c r="Y91" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
@@ -32288,7 +32898,7 @@
         <v>333</v>
       </c>
       <c r="Y92" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -32296,7 +32906,7 @@
         <v>270</v>
       </c>
       <c r="Y93" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94">
@@ -32304,171 +32914,176 @@
         <v>271</v>
       </c>
       <c r="Y94" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -17,13 +17,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24361" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24907" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1692,6 +1692,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="783" x14ac:knownFonts="1">
+  <fonts count="799" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6628,8 +6661,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1371">
+  <fills count="1398">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14394,8 +14528,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1402">
+  <borders count="1434">
     <border>
       <left/>
       <right/>
@@ -28340,6 +28627,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28524,7 +29137,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="796">
+  <cellXfs count="812">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30871,52 +31484,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1340" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1343" borderId="1381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1381" fillId="1343" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1346" borderId="1385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1385" fillId="1346" fontId="769" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1349" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1389" fillId="1349" fontId="770" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1352" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1389" fillId="1352" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="772" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1355" fontId="773" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="1358" borderId="1393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="1361" borderId="1397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1367" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="1370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1393" fillId="1358" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1397" fillId="1361" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1401" fillId="1364" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1401" fillId="1364" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1352" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1367" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1352" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1370" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1373" borderId="1409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1376" borderId="1413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1379" borderId="1417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1382" borderId="1421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1388" borderId="1425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1379" borderId="1429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1397" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31214,7 +31875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -31734,6 +32395,9 @@
       <c r="H7" t="s">
         <v>458</v>
       </c>
+      <c r="J7" t="s">
+        <v>544</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -31774,7 +32438,7 @@
         <v>445</v>
       </c>
       <c r="AD7" t="s">
-        <v>225</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8">
@@ -31830,7 +32494,7 @@
         <v>446</v>
       </c>
       <c r="AD8" t="s">
-        <v>226</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
@@ -31877,7 +32541,7 @@
         <v>182</v>
       </c>
       <c r="AD9" t="s">
-        <v>227</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
@@ -31918,7 +32582,7 @@
         <v>183</v>
       </c>
       <c r="AD10" t="s">
-        <v>489</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -31956,7 +32620,7 @@
         <v>252</v>
       </c>
       <c r="AD11" t="s">
-        <v>505</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -31976,7 +32640,7 @@
         <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="N12" t="s">
         <v>531</v>
@@ -31994,7 +32658,7 @@
         <v>184</v>
       </c>
       <c r="AD12" t="s">
-        <v>506</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -32014,7 +32678,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="Q13" t="s">
         <v>86</v>
@@ -32029,7 +32693,7 @@
         <v>185</v>
       </c>
       <c r="AD13" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14">
@@ -32049,7 +32713,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>487</v>
       </c>
       <c r="Q14" t="s">
         <v>87</v>
@@ -32064,7 +32728,7 @@
         <v>186</v>
       </c>
       <c r="AD14" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15">
@@ -32081,7 +32745,7 @@
         <v>519</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
         <v>513</v>
@@ -32096,7 +32760,7 @@
         <v>187</v>
       </c>
       <c r="AD15" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16">
@@ -32113,7 +32777,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s">
         <v>514</v>
@@ -32128,7 +32792,7 @@
         <v>188</v>
       </c>
       <c r="AD16" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17">
@@ -32144,6 +32808,9 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s">
         <v>515</v>
       </c>
@@ -32151,7 +32818,7 @@
         <v>476</v>
       </c>
       <c r="AD17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18">
@@ -32171,7 +32838,7 @@
         <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19">
@@ -32191,7 +32858,7 @@
         <v>98</v>
       </c>
       <c r="AD19" t="s">
-        <v>228</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20">
@@ -32211,7 +32878,7 @@
         <v>99</v>
       </c>
       <c r="AD20" t="s">
-        <v>229</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21">
@@ -32231,7 +32898,7 @@
         <v>100</v>
       </c>
       <c r="AD21" t="s">
-        <v>230</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22">
@@ -32250,6 +32917,9 @@
       <c r="Y22" t="s">
         <v>496</v>
       </c>
+      <c r="AD22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -32267,6 +32937,9 @@
       <c r="Y23" t="s">
         <v>102</v>
       </c>
+      <c r="AD23" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -32284,6 +32957,9 @@
       <c r="Y24" t="s">
         <v>103</v>
       </c>
+      <c r="AD24" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -32301,6 +32977,9 @@
       <c r="Y25" t="s">
         <v>104</v>
       </c>
+      <c r="AD25" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -32318,6 +32997,9 @@
       <c r="Y26" t="s">
         <v>105</v>
       </c>
+      <c r="AD26" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -32335,6 +33017,9 @@
       <c r="Y27" t="s">
         <v>106</v>
       </c>
+      <c r="AD27" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -32562,7 +33247,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>120</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51">
@@ -32570,7 +33255,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -32578,7 +33263,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -32586,7 +33271,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -32594,7 +33279,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
@@ -32602,7 +33287,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56">
@@ -32610,7 +33295,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -32618,7 +33303,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
@@ -32626,7 +33311,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
@@ -32634,7 +33319,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
@@ -32642,7 +33327,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -32650,7 +33335,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -32658,7 +33343,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
@@ -32666,7 +33351,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -32674,7 +33359,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -32682,7 +33367,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -32690,7 +33375,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
@@ -32698,15 +33383,15 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="Y68" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69">
@@ -32714,7 +33399,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70">
@@ -32722,7 +33407,7 @@
         <v>401</v>
       </c>
       <c r="Y70" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71">
@@ -32730,7 +33415,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
@@ -32738,7 +33423,7 @@
         <v>402</v>
       </c>
       <c r="Y72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -32746,7 +33431,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -32754,7 +33439,7 @@
         <v>522</v>
       </c>
       <c r="Y74" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
@@ -32762,7 +33447,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76">
@@ -32770,7 +33455,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -32778,7 +33463,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78">
@@ -32786,7 +33471,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79">
@@ -32794,7 +33479,7 @@
         <v>425</v>
       </c>
       <c r="Y79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -32802,7 +33487,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -32810,7 +33495,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -32818,7 +33503,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83">
@@ -32826,7 +33511,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -32834,256 +33519,264 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>264</v>
+        <v>543</v>
       </c>
       <c r="Y85" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y86" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y87" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y88" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y90" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y91" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y92" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y93" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -34,19 +34,20 @@
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24907" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25457" uniqueCount="556">
   <si>
     <t>description</t>
   </si>
@@ -1725,6 +1726,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="799" x14ac:knownFonts="1">
+  <fonts count="815" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6762,8 +6772,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1398">
+  <fills count="1425">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14681,8 +14792,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1434">
+  <borders count="1466">
     <border>
       <left/>
       <right/>
@@ -28627,6 +28891,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29137,7 +29727,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="812">
+  <cellXfs count="828">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31532,52 +32122,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1370" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1373" borderId="1409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1409" fillId="1373" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="784" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1376" borderId="1413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1413" fillId="1376" fontId="785" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1379" borderId="1417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1417" fillId="1379" fontId="786" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1382" borderId="1421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1421" fillId="1382" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="788" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1385" fontId="789" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="1388" borderId="1425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="1379" borderId="1429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="1394" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="1397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1425" fillId="1388" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1429" fillId="1379" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1433" fillId="1391" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1433" fillId="1391" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1382" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1394" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1382" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1397" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1400" borderId="1441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1403" borderId="1445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1406" borderId="1449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1409" borderId="1453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1415" borderId="1457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1406" borderId="1461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1424" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31875,7 +32513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -31958,21 +32596,24 @@
         <v>388</v>
       </c>
       <c r="Y1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>422</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -32050,21 +32691,24 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>441</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -32135,22 +32779,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -32218,22 +32862,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>442</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -32292,22 +32936,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>348</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>443</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -32360,22 +33004,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>455</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>444</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -32422,22 +33066,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>456</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>445</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>547</v>
       </c>
     </row>
@@ -32478,22 +33122,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>446</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>548</v>
       </c>
     </row>
@@ -32534,13 +33178,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -32575,13 +33219,13 @@
       <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -32613,13 +33257,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -32651,13 +33295,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -32686,13 +33330,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>489</v>
       </c>
     </row>
@@ -32721,13 +33365,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>505</v>
       </c>
     </row>
@@ -32753,13 +33397,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>506</v>
       </c>
     </row>
@@ -32785,13 +33429,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>510</v>
       </c>
     </row>
@@ -32811,13 +33455,13 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>515</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>476</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -32834,10 +33478,10 @@
       <c r="K18" t="s">
         <v>468</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -32854,10 +33498,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>507</v>
       </c>
     </row>
@@ -32874,10 +33518,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>508</v>
       </c>
     </row>
@@ -32886,7 +33530,7 @@
         <v>420</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -32894,10 +33538,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>512</v>
       </c>
     </row>
@@ -32906,7 +33550,7 @@
         <v>421</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>292</v>
@@ -32914,10 +33558,10 @@
       <c r="K22" t="s">
         <v>485</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>496</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32926,7 +33570,7 @@
         <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="G23" t="s">
         <v>283</v>
@@ -32934,10 +33578,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>550</v>
       </c>
     </row>
@@ -32946,7 +33590,7 @@
         <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
         <v>272</v>
@@ -32954,19 +33598,19 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>103</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="G25" t="s">
         <v>68</v>
@@ -32974,19 +33618,19 @@
       <c r="K25" t="s">
         <v>537</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>104</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
         <v>275</v>
@@ -32994,19 +33638,19 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>105</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>483</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -33014,19 +33658,19 @@
       <c r="K27" t="s">
         <v>450</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G28" t="s">
         <v>276</v>
@@ -33034,16 +33678,16 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -33051,106 +33695,112 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>521</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -33158,7 +33808,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>541</v>
       </c>
     </row>
@@ -33166,7 +33816,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -33174,7 +33824,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -33182,7 +33832,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -33190,7 +33840,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -33198,7 +33848,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -33206,7 +33856,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -33214,7 +33864,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -33222,7 +33872,7 @@
       <c r="G47" t="s">
         <v>205</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>452</v>
       </c>
     </row>
@@ -33230,7 +33880,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -33238,7 +33888,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -33246,7 +33896,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>546</v>
       </c>
     </row>
@@ -33254,7 +33904,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -33262,7 +33912,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -33270,7 +33920,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -33278,7 +33928,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>497</v>
       </c>
     </row>
@@ -33286,7 +33936,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>478</v>
       </c>
     </row>
@@ -33294,7 +33944,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -33302,7 +33952,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33310,7 +33960,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>471</v>
       </c>
     </row>
@@ -33318,7 +33968,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33326,7 +33976,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33334,7 +33984,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33342,7 +33992,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33350,7 +34000,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -33358,7 +34008,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -33366,7 +34016,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -33374,7 +34024,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>448</v>
       </c>
     </row>
@@ -33382,7 +34032,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>488</v>
       </c>
     </row>
@@ -33390,7 +34040,7 @@
       <c r="G68" t="s">
         <v>542</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>208</v>
       </c>
     </row>
@@ -33398,7 +34048,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -33406,7 +34056,7 @@
       <c r="G70" t="s">
         <v>401</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>453</v>
       </c>
     </row>
@@ -33414,7 +34064,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -33422,7 +34072,7 @@
       <c r="G72" t="s">
         <v>402</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -33430,7 +34080,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -33438,7 +34088,7 @@
       <c r="G74" t="s">
         <v>522</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -33446,7 +34096,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>191</v>
       </c>
     </row>
@@ -33454,7 +34104,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -33462,7 +34112,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>466</v>
       </c>
     </row>
@@ -33470,7 +34120,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>482</v>
       </c>
     </row>
@@ -33478,7 +34128,7 @@
       <c r="G79" t="s">
         <v>425</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33486,7 +34136,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -33494,7 +34144,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33502,7 +34152,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>509</v>
       </c>
     </row>
@@ -33510,7 +34160,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33518,7 +34168,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33526,7 +34176,7 @@
       <c r="G85" t="s">
         <v>543</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -33534,7 +34184,7 @@
       <c r="G86" t="s">
         <v>264</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>498</v>
       </c>
     </row>
@@ -33542,7 +34192,7 @@
       <c r="G87" t="s">
         <v>281</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -33550,7 +34200,7 @@
       <c r="G88" t="s">
         <v>265</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>465</v>
       </c>
     </row>
@@ -33558,7 +34208,7 @@
       <c r="G89" t="s">
         <v>266</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>195</v>
       </c>
     </row>
@@ -33566,7 +34216,7 @@
       <c r="G90" t="s">
         <v>298</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -33574,7 +34224,7 @@
       <c r="G91" t="s">
         <v>304</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>209</v>
       </c>
     </row>
@@ -33582,7 +34232,7 @@
       <c r="G92" t="s">
         <v>288</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33590,7 +34240,7 @@
       <c r="G93" t="s">
         <v>333</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -33598,7 +34248,7 @@
       <c r="G94" t="s">
         <v>270</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>439</v>
       </c>
     </row>
@@ -33606,177 +34256,177 @@
       <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25457" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26009" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1735,6 +1735,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="815" x14ac:knownFonts="1">
+  <fonts count="831" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6873,8 +6879,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1425">
+  <fills count="1452">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14945,8 +15052,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1466">
+  <borders count="1498">
     <border>
       <left/>
       <right/>
@@ -28891,6 +29151,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29727,7 +30313,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="828">
+  <cellXfs count="844">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32170,52 +32756,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1397" fontId="798" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1400" borderId="1441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1441" fillId="1400" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="800" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1403" borderId="1445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1445" fillId="1403" fontId="801" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="1406" borderId="1449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1449" fillId="1406" fontId="802" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="1409" borderId="1453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1453" fillId="1409" fontId="803" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="804" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="1412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1412" fontId="805" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="1415" borderId="1457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="1406" borderId="1461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="809" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="1421" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="1424" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1457" fillId="1415" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1461" fillId="1406" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1465" fillId="1418" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1465" fillId="1418" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1409" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1421" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1409" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1424" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1427" borderId="1473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1430" borderId="1477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1433" borderId="1481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1436" borderId="1485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1442" borderId="1489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1433" borderId="1493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1451" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33830,7 +34464,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>282</v>
+        <v>556</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -33838,7 +34472,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s">
         <v>116</v>
@@ -33846,7 +34480,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s">
         <v>117</v>
@@ -33854,7 +34488,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Z45" t="s">
         <v>118</v>
@@ -33862,7 +34496,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -33870,7 +34504,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s">
         <v>452</v>
@@ -33878,7 +34512,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="Z48" t="s">
         <v>207</v>
@@ -33886,7 +34520,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Z49" t="s">
         <v>69</v>
@@ -33894,7 +34528,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s">
         <v>546</v>
@@ -33902,7 +34536,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s">
         <v>120</v>
@@ -33910,7 +34544,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Z52" t="s">
         <v>121</v>
@@ -33918,7 +34552,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Z53" t="s">
         <v>122</v>
@@ -33926,7 +34560,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Z54" t="s">
         <v>497</v>
@@ -33934,7 +34568,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Z55" t="s">
         <v>478</v>
@@ -33942,7 +34576,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z56" t="s">
         <v>123</v>
@@ -33950,7 +34584,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z57" t="s">
         <v>339</v>
@@ -33958,7 +34592,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>296</v>
+        <v>557</v>
       </c>
       <c r="Z58" t="s">
         <v>471</v>
@@ -33966,7 +34600,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="Z59" t="s">
         <v>124</v>
@@ -33974,7 +34608,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="Z60" t="s">
         <v>125</v>
@@ -33982,7 +34616,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s">
         <v>126</v>
@@ -33990,7 +34624,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Z62" t="s">
         <v>127</v>
@@ -33998,7 +34632,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="Z63" t="s">
         <v>128</v>
@@ -34006,7 +34640,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="Z64" t="s">
         <v>129</v>
@@ -34014,7 +34648,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Z65" t="s">
         <v>130</v>
@@ -34022,7 +34656,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="Z66" t="s">
         <v>448</v>
@@ -34030,7 +34664,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Z67" t="s">
         <v>488</v>
@@ -34038,7 +34672,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Z68" t="s">
         <v>208</v>
@@ -34046,7 +34680,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="Z69" t="s">
         <v>382</v>
@@ -34054,7 +34688,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="Z70" t="s">
         <v>453</v>
@@ -34062,7 +34696,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z71" t="s">
         <v>131</v>
@@ -34070,7 +34704,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z72" t="s">
         <v>132</v>
@@ -34078,7 +34712,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="Z73" t="s">
         <v>133</v>
@@ -34086,7 +34720,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="Z74" t="s">
         <v>134</v>
@@ -34094,7 +34728,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="Z75" t="s">
         <v>191</v>
@@ -34102,7 +34736,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>273</v>
+        <v>522</v>
       </c>
       <c r="Z76" t="s">
         <v>192</v>
@@ -34110,7 +34744,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="Z77" t="s">
         <v>466</v>
@@ -34118,7 +34752,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="Z78" t="s">
         <v>482</v>
@@ -34126,7 +34760,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="Z79" t="s">
         <v>135</v>
@@ -34134,7 +34768,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Z80" t="s">
         <v>136</v>
@@ -34142,7 +34776,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="Z81" t="s">
         <v>137</v>
@@ -34150,7 +34784,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="Z82" t="s">
         <v>509</v>
@@ -34158,7 +34792,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Z83" t="s">
         <v>138</v>
@@ -34166,7 +34800,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z84" t="s">
         <v>139</v>
@@ -34174,7 +34808,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="Z85" t="s">
         <v>193</v>
@@ -34182,7 +34816,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Z86" t="s">
         <v>498</v>
@@ -34190,7 +34824,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>281</v>
+        <v>543</v>
       </c>
       <c r="Z87" t="s">
         <v>194</v>
@@ -34198,7 +34832,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z88" t="s">
         <v>465</v>
@@ -34206,7 +34840,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Z89" t="s">
         <v>195</v>
@@ -34214,7 +34848,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Z90" t="s">
         <v>196</v>
@@ -34222,7 +34856,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -34230,7 +34864,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z92" t="s">
         <v>140</v>
@@ -34238,7 +34872,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="Z93" t="s">
         <v>197</v>
@@ -34246,7 +34880,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Z94" t="s">
         <v>439</v>
@@ -34254,18 +34888,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Z95" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
       <c r="Z96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
       <c r="Z97" t="s">
         <v>199</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -34,15 +34,15 @@
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26009" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26559" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1741,6 +1741,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1751,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="831" x14ac:knownFonts="1">
+  <fonts count="847" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6980,8 +6983,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1452">
+  <fills count="1479">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15205,8 +15309,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1498">
+  <borders count="1530">
     <border>
       <left/>
       <right/>
@@ -29151,6 +29408,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30313,7 +30896,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="844">
+  <cellXfs count="860">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32804,52 +33387,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1424" fontId="814" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1427" borderId="1473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1473" fillId="1427" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="816" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1430" borderId="1477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1477" fillId="1430" fontId="817" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1433" borderId="1481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1481" fillId="1433" fontId="818" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1436" borderId="1485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1485" fillId="1436" fontId="819" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="820" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="1439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1439" fontId="821" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1442" borderId="1489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1433" borderId="1493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="1448" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="830" fillId="1451" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1489" fillId="1442" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1493" fillId="1433" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1497" fillId="1445" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1497" fillId="1445" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1436" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1448" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1436" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1451" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1454" borderId="1505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1457" borderId="1509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1460" borderId="1513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1463" borderId="1517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1466" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1469" borderId="1521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1460" borderId="1525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1478" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33147,7 +33778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -33230,24 +33861,21 @@
         <v>388</v>
       </c>
       <c r="Y1" t="s">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC1" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="AD1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -33325,24 +33953,21 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
-        <v>176</v>
+        <v>441</v>
       </c>
       <c r="AD2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -33413,22 +34038,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
+      <c r="Y3" t="s">
+        <v>90</v>
+      </c>
       <c r="Z3" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="AA3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="AC3" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="AD3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -33496,22 +34121,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
+      <c r="Y4" t="s">
+        <v>347</v>
+      </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AB4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC4" t="s">
-        <v>177</v>
+        <v>442</v>
       </c>
       <c r="AD4" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -33570,22 +34195,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
+      <c r="Y5" t="s">
+        <v>348</v>
+      </c>
       <c r="Z5" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AA5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC5" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="AD5" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -33638,22 +34263,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
       <c r="Z6" t="s">
-        <v>91</v>
+        <v>455</v>
       </c>
       <c r="AA6" t="s">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC6" t="s">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="AD6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -33700,22 +34325,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>456</v>
       </c>
       <c r="AA7" t="s">
-        <v>456</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC7" t="s">
-        <v>180</v>
+        <v>445</v>
       </c>
       <c r="AD7" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE7" t="s">
         <v>547</v>
       </c>
     </row>
@@ -33756,22 +34381,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
       <c r="Z8" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC8" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="AD8" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE8" t="s">
         <v>548</v>
       </c>
     </row>
@@ -33812,13 +34437,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>203</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -33853,13 +34478,13 @@
       <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -33891,13 +34516,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -33929,13 +34554,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -33964,13 +34589,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>489</v>
       </c>
     </row>
@@ -33999,13 +34624,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>505</v>
       </c>
     </row>
@@ -34031,13 +34656,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>506</v>
       </c>
     </row>
@@ -34055,7 +34680,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>558</v>
       </c>
       <c r="Q16" t="s">
         <v>514</v>
@@ -34063,13 +34688,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>510</v>
       </c>
     </row>
@@ -34087,15 +34712,15 @@
         <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" t="s">
         <v>515</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>476</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -34112,10 +34737,13 @@
       <c r="K18" t="s">
         <v>468</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -34132,10 +34760,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>507</v>
       </c>
     </row>
@@ -34152,10 +34780,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>508</v>
       </c>
     </row>
@@ -34172,10 +34800,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>512</v>
       </c>
     </row>
@@ -34192,10 +34820,10 @@
       <c r="K22" t="s">
         <v>485</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>496</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -34212,10 +34840,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>550</v>
       </c>
     </row>
@@ -34232,16 +34860,16 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>460</v>
@@ -34252,16 +34880,16 @@
       <c r="K25" t="s">
         <v>537</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -34272,16 +34900,16 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>219</v>
@@ -34292,16 +34920,16 @@
       <c r="K27" t="s">
         <v>450</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>483</v>
@@ -34312,13 +34940,13 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="E29" t="s">
         <v>484</v>
@@ -34329,13 +34957,13 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
         <v>424</v>
@@ -34343,21 +34971,18 @@
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>220</v>
-      </c>
       <c r="E31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -34368,7 +34993,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -34379,7 +35004,7 @@
       <c r="G33" t="s">
         <v>521</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -34390,7 +35015,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -34401,7 +35026,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>204</v>
       </c>
     </row>
@@ -34412,7 +35037,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -34423,7 +35048,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -34434,7 +35059,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -34442,7 +35067,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>541</v>
       </c>
     </row>
@@ -34450,7 +35075,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -34458,7 +35083,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -34466,7 +35091,7 @@
       <c r="G42" t="s">
         <v>556</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -34474,7 +35099,7 @@
       <c r="G43" t="s">
         <v>282</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -34482,7 +35107,7 @@
       <c r="G44" t="s">
         <v>293</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -34490,7 +35115,7 @@
       <c r="G45" t="s">
         <v>294</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -34498,7 +35123,7 @@
       <c r="G46" t="s">
         <v>336</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -34506,7 +35131,7 @@
       <c r="G47" t="s">
         <v>335</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>452</v>
       </c>
     </row>
@@ -34514,7 +35139,7 @@
       <c r="G48" t="s">
         <v>205</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -34522,7 +35147,7 @@
       <c r="G49" t="s">
         <v>313</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -34530,7 +35155,7 @@
       <c r="G50" t="s">
         <v>332</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>546</v>
       </c>
     </row>
@@ -34538,7 +35163,7 @@
       <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -34546,7 +35171,7 @@
       <c r="G52" t="s">
         <v>295</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -34554,7 +35179,7 @@
       <c r="G53" t="s">
         <v>349</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -34562,7 +35187,7 @@
       <c r="G54" t="s">
         <v>324</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>497</v>
       </c>
     </row>
@@ -34570,7 +35195,7 @@
       <c r="G55" t="s">
         <v>261</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>478</v>
       </c>
     </row>
@@ -34578,7 +35203,7 @@
       <c r="G56" t="s">
         <v>285</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -34586,7 +35211,7 @@
       <c r="G57" t="s">
         <v>286</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -34594,7 +35219,7 @@
       <c r="G58" t="s">
         <v>557</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>471</v>
       </c>
     </row>
@@ -34602,7 +35227,7 @@
       <c r="G59" t="s">
         <v>287</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -34610,7 +35235,7 @@
       <c r="G60" t="s">
         <v>296</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -34618,7 +35243,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34626,7 +35251,7 @@
       <c r="G62" t="s">
         <v>330</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34634,7 +35259,7 @@
       <c r="G63" t="s">
         <v>302</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -34642,7 +35267,7 @@
       <c r="G64" t="s">
         <v>303</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -34650,7 +35275,7 @@
       <c r="G65" t="s">
         <v>362</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -34658,7 +35283,7 @@
       <c r="G66" t="s">
         <v>363</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>448</v>
       </c>
     </row>
@@ -34666,7 +35291,7 @@
       <c r="G67" t="s">
         <v>338</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>488</v>
       </c>
     </row>
@@ -34674,7 +35299,7 @@
       <c r="G68" t="s">
         <v>306</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>208</v>
       </c>
     </row>
@@ -34682,7 +35307,7 @@
       <c r="G69" t="s">
         <v>262</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -34690,7 +35315,7 @@
       <c r="G70" t="s">
         <v>542</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>453</v>
       </c>
     </row>
@@ -34698,7 +35323,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -34706,7 +35331,7 @@
       <c r="G72" t="s">
         <v>401</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -34714,7 +35339,7 @@
       <c r="G73" t="s">
         <v>297</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -34722,7 +35347,7 @@
       <c r="G74" t="s">
         <v>402</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -34730,7 +35355,7 @@
       <c r="G75" t="s">
         <v>255</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>191</v>
       </c>
     </row>
@@ -34738,7 +35363,7 @@
       <c r="G76" t="s">
         <v>522</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -34746,7 +35371,7 @@
       <c r="G77" t="s">
         <v>337</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>466</v>
       </c>
     </row>
@@ -34754,7 +35379,7 @@
       <c r="G78" t="s">
         <v>273</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>482</v>
       </c>
     </row>
@@ -34762,7 +35387,7 @@
       <c r="G79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -34770,7 +35395,7 @@
       <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -34778,7 +35403,7 @@
       <c r="G81" t="s">
         <v>425</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -34786,7 +35411,7 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>509</v>
       </c>
     </row>
@@ -34794,7 +35419,7 @@
       <c r="G83" t="s">
         <v>263</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34802,7 +35427,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34810,7 +35435,7 @@
       <c r="G85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -34818,7 +35443,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>498</v>
       </c>
     </row>
@@ -34826,7 +35451,7 @@
       <c r="G87" t="s">
         <v>543</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -34834,7 +35459,7 @@
       <c r="G88" t="s">
         <v>264</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>465</v>
       </c>
     </row>
@@ -34842,7 +35467,7 @@
       <c r="G89" t="s">
         <v>281</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>195</v>
       </c>
     </row>
@@ -34850,7 +35475,7 @@
       <c r="G90" t="s">
         <v>265</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -34858,7 +35483,7 @@
       <c r="G91" t="s">
         <v>266</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>209</v>
       </c>
     </row>
@@ -34866,7 +35491,7 @@
       <c r="G92" t="s">
         <v>298</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -34874,7 +35499,7 @@
       <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -34882,7 +35507,7 @@
       <c r="G94" t="s">
         <v>288</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>439</v>
       </c>
     </row>
@@ -34890,7 +35515,7 @@
       <c r="G95" t="s">
         <v>333</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>447</v>
       </c>
     </row>
@@ -34898,7 +35523,7 @@
       <c r="G96" t="s">
         <v>270</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -34906,167 +35531,167 @@
       <c r="G97" t="s">
         <v>271</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26559" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29325" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1744,6 +1744,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1763,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="847" x14ac:knownFonts="1">
+  <fonts count="927" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7084,8 +7096,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1479">
+  <fills count="1614">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15462,8 +15979,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1530">
+  <borders count="1690">
     <border>
       <left/>
       <right/>
@@ -29408,6 +30690,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30896,7 +33808,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="860">
+  <cellXfs count="940">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33435,52 +36347,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1451" fontId="830" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1454" borderId="1505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1505" fillId="1454" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="832" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1457" borderId="1509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1509" fillId="1457" fontId="833" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1460" borderId="1513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1513" fillId="1460" fontId="834" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="835" fillId="1463" borderId="1517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1517" fillId="1463" fontId="835" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="836" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="837" fillId="1466" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1466" fontId="837" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="1469" borderId="1521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="1460" borderId="1525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="841" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="1475" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="1478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1521" fillId="1469" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1525" fillId="1460" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1529" fillId="1472" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1529" fillId="1472" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1463" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1475" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1463" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1478" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1537" fillId="1481" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1541" fillId="1484" fontId="849" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1545" fillId="1487" fontId="850" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1549" fillId="1490" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="852" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1493" fontId="853" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1553" fillId="1496" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1557" fillId="1487" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1561" fillId="1499" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1561" fillId="1499" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1490" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1502" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1490" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1505" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1569" fillId="1508" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1573" fillId="1511" fontId="865" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1577" fillId="1514" fontId="866" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1581" fillId="1517" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="868" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1520" fontId="869" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1585" fillId="1523" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1589" fillId="1514" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1593" fillId="1526" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1593" fillId="1526" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1517" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1529" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1517" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1532" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1601" fillId="1535" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1605" fillId="1538" fontId="881" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1609" fillId="1541" fontId="882" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1613" fillId="1544" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="884" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1547" fontId="885" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1617" fillId="1550" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1621" fillId="1541" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1625" fillId="1553" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1625" fillId="1553" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1544" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1556" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1544" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1559" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1633" fillId="1562" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1637" fillId="1565" fontId="897" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1641" fillId="1568" fontId="898" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1645" fillId="1571" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="900" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1574" fontId="901" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1649" fillId="1577" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1653" fillId="1568" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1657" fillId="1580" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1657" fillId="1580" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1571" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1583" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1571" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1586" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1589" borderId="1665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1592" borderId="1669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1595" borderId="1673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1598" borderId="1677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1601" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1604" borderId="1681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1595" borderId="1685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1613" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33778,7 +36930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -34861,7 +38013,7 @@
         <v>385</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>559</v>
       </c>
       <c r="AD24" t="s">
         <v>551</v>
@@ -34881,7 +38033,7 @@
         <v>537</v>
       </c>
       <c r="Y25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD25" t="s">
         <v>552</v>
@@ -34901,7 +38053,7 @@
         <v>77</v>
       </c>
       <c r="Y26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD26" t="s">
         <v>229</v>
@@ -34921,7 +38073,7 @@
         <v>450</v>
       </c>
       <c r="Y27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD27" t="s">
         <v>230</v>
@@ -34941,7 +38093,7 @@
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -34958,7 +38110,7 @@
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
@@ -34972,7 +38124,7 @@
         <v>210</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -34983,7 +38135,7 @@
         <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -34994,7 +38146,7 @@
         <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -35005,7 +38157,7 @@
         <v>521</v>
       </c>
       <c r="Y33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -35016,7 +38168,7 @@
         <v>253</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35">
@@ -35027,7 +38179,7 @@
         <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -35038,7 +38190,7 @@
         <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -35049,7 +38201,7 @@
         <v>254</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
@@ -35060,7 +38212,7 @@
         <v>301</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -35068,7 +38220,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>541</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -35076,7 +38228,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
@@ -35084,7 +38236,7 @@
         <v>206</v>
       </c>
       <c r="Y41" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42">
@@ -35092,7 +38244,7 @@
         <v>556</v>
       </c>
       <c r="Y42" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -35100,7 +38252,7 @@
         <v>282</v>
       </c>
       <c r="Y43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -35108,7 +38260,7 @@
         <v>293</v>
       </c>
       <c r="Y44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -35116,7 +38268,7 @@
         <v>294</v>
       </c>
       <c r="Y45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -35124,7 +38276,7 @@
         <v>336</v>
       </c>
       <c r="Y46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -35132,7 +38284,7 @@
         <v>335</v>
       </c>
       <c r="Y47" t="s">
-        <v>452</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -35140,7 +38292,7 @@
         <v>205</v>
       </c>
       <c r="Y48" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -35148,7 +38300,7 @@
         <v>313</v>
       </c>
       <c r="Y49" t="s">
-        <v>69</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
@@ -35156,7 +38308,7 @@
         <v>332</v>
       </c>
       <c r="Y50" t="s">
-        <v>546</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51">
@@ -35164,7 +38316,7 @@
         <v>361</v>
       </c>
       <c r="Y51" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -35172,7 +38324,7 @@
         <v>295</v>
       </c>
       <c r="Y52" t="s">
-        <v>121</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53">
@@ -35180,7 +38332,7 @@
         <v>349</v>
       </c>
       <c r="Y53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -35188,7 +38340,7 @@
         <v>324</v>
       </c>
       <c r="Y54" t="s">
-        <v>497</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -35196,7 +38348,7 @@
         <v>261</v>
       </c>
       <c r="Y55" t="s">
-        <v>478</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -35204,7 +38356,7 @@
         <v>285</v>
       </c>
       <c r="Y56" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57">
@@ -35212,7 +38364,7 @@
         <v>286</v>
       </c>
       <c r="Y57" t="s">
-        <v>339</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58">
@@ -35220,7 +38372,7 @@
         <v>557</v>
       </c>
       <c r="Y58" t="s">
-        <v>471</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -35228,7 +38380,7 @@
         <v>287</v>
       </c>
       <c r="Y59" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
@@ -35236,7 +38388,7 @@
         <v>296</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61">
@@ -35244,7 +38396,7 @@
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -35252,7 +38404,7 @@
         <v>330</v>
       </c>
       <c r="Y62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -35260,7 +38412,7 @@
         <v>302</v>
       </c>
       <c r="Y63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
@@ -35268,7 +38420,7 @@
         <v>303</v>
       </c>
       <c r="Y64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
@@ -35276,7 +38428,7 @@
         <v>362</v>
       </c>
       <c r="Y65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
@@ -35284,7 +38436,7 @@
         <v>363</v>
       </c>
       <c r="Y66" t="s">
-        <v>448</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
@@ -35292,7 +38444,7 @@
         <v>338</v>
       </c>
       <c r="Y67" t="s">
-        <v>488</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -35300,7 +38452,7 @@
         <v>306</v>
       </c>
       <c r="Y68" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -35308,7 +38460,7 @@
         <v>262</v>
       </c>
       <c r="Y69" t="s">
-        <v>382</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
@@ -35316,7 +38468,7 @@
         <v>542</v>
       </c>
       <c r="Y70" t="s">
-        <v>453</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71">
@@ -35324,7 +38476,7 @@
         <v>307</v>
       </c>
       <c r="Y71" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72">
@@ -35332,7 +38484,7 @@
         <v>401</v>
       </c>
       <c r="Y72" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73">
@@ -35340,7 +38492,7 @@
         <v>297</v>
       </c>
       <c r="Y73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
@@ -35348,7 +38500,7 @@
         <v>402</v>
       </c>
       <c r="Y74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
@@ -35356,7 +38508,7 @@
         <v>255</v>
       </c>
       <c r="Y75" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
@@ -35364,7 +38516,7 @@
         <v>522</v>
       </c>
       <c r="Y76" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
@@ -35372,7 +38524,7 @@
         <v>337</v>
       </c>
       <c r="Y77" t="s">
-        <v>466</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
@@ -35380,7 +38532,7 @@
         <v>273</v>
       </c>
       <c r="Y78" t="s">
-        <v>482</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -35388,7 +38540,7 @@
         <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80">
@@ -35396,7 +38548,7 @@
         <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>136</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81">
@@ -35404,7 +38556,7 @@
         <v>425</v>
       </c>
       <c r="Y81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
@@ -35412,7 +38564,7 @@
         <v>325</v>
       </c>
       <c r="Y82" t="s">
-        <v>509</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
@@ -35420,7 +38572,7 @@
         <v>263</v>
       </c>
       <c r="Y83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
@@ -35428,7 +38580,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>139</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85">
@@ -35436,7 +38588,7 @@
         <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
@@ -35444,7 +38596,7 @@
         <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>498</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
@@ -35452,7 +38604,7 @@
         <v>543</v>
       </c>
       <c r="Y87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -35460,7 +38612,7 @@
         <v>264</v>
       </c>
       <c r="Y88" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89">
@@ -35468,7 +38620,7 @@
         <v>281</v>
       </c>
       <c r="Y89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
@@ -35476,7 +38628,7 @@
         <v>265</v>
       </c>
       <c r="Y90" t="s">
-        <v>196</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91">
@@ -35484,7 +38636,7 @@
         <v>266</v>
       </c>
       <c r="Y91" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
@@ -35492,7 +38644,7 @@
         <v>298</v>
       </c>
       <c r="Y92" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -35500,7 +38652,7 @@
         <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>197</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94">
@@ -35508,7 +38660,7 @@
         <v>288</v>
       </c>
       <c r="Y94" t="s">
-        <v>439</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
@@ -35516,7 +38668,7 @@
         <v>333</v>
       </c>
       <c r="Y95" t="s">
-        <v>447</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
@@ -35524,7 +38676,7 @@
         <v>270</v>
       </c>
       <c r="Y96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
@@ -35532,166 +38684,186 @@
         <v>271</v>
       </c>
       <c r="Y97" t="s">
-        <v>199</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>200</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>523</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>376</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>144</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>454</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>40</v>
+        <v>561</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29325" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29880" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1756,6 +1756,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1769,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="927" x14ac:knownFonts="1">
+  <fonts count="943" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7601,8 +7607,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1614">
+  <fills count="1641">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16744,8 +16851,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1690">
+  <borders count="1722">
     <border>
       <left/>
       <right/>
@@ -30690,6 +30950,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33808,7 +34394,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="940">
+  <cellXfs count="956">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36587,52 +37173,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1586" fontId="910" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="911" fillId="1589" borderId="1665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1665" fillId="1589" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="912" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1592" borderId="1669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1669" fillId="1592" fontId="913" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1595" borderId="1673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1673" fillId="1595" fontId="914" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1598" borderId="1677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1677" fillId="1598" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="916" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1601" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1601" fontId="917" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="919" fillId="1604" borderId="1681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="920" fillId="1595" borderId="1685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="921" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="923" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="1610" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="926" fillId="1613" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1681" fillId="1604" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1685" fillId="1595" fontId="920" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1689" fillId="1607" fontId="921" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1689" fillId="1607" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1598" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1610" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1598" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1613" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1616" borderId="1697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1619" borderId="1701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1622" borderId="1705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1625" borderId="1709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1628" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1631" borderId="1713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1622" borderId="1717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1640" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37309,7 +37943,7 @@
         <v>449</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="H5" t="s">
         <v>467</v>
@@ -37383,7 +38017,7 @@
         <v>516</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
         <v>459</v>
@@ -37445,7 +38079,7 @@
         <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="H7" t="s">
         <v>458</v>
@@ -37507,7 +38141,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -37563,7 +38197,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -37607,7 +38241,7 @@
         <v>308</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
         <v>463</v>
@@ -37648,7 +38282,7 @@
         <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
         <v>315</v>
@@ -37686,7 +38320,7 @@
         <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
@@ -37724,7 +38358,7 @@
         <v>334</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
         <v>317</v>
@@ -37759,7 +38393,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s">
         <v>318</v>
@@ -37794,7 +38428,7 @@
         <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
         <v>519</v>
@@ -37826,7 +38460,7 @@
         <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
         <v>73</v>
@@ -37858,7 +38492,7 @@
         <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
@@ -37884,7 +38518,7 @@
         <v>423</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>468</v>
@@ -37907,7 +38541,7 @@
         <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
@@ -37927,7 +38561,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K20" t="s">
         <v>76</v>
@@ -37947,7 +38581,7 @@
         <v>554</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
         <v>373</v>
@@ -37967,7 +38601,7 @@
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
         <v>485</v>
@@ -37987,7 +38621,7 @@
         <v>314</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
@@ -38007,7 +38641,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K24" t="s">
         <v>385</v>
@@ -38027,7 +38661,7 @@
         <v>460</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
         <v>537</v>
@@ -38047,7 +38681,7 @@
         <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>77</v>
@@ -38067,7 +38701,7 @@
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
         <v>450</v>
@@ -38087,7 +38721,7 @@
         <v>483</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
@@ -38104,7 +38738,7 @@
         <v>484</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
@@ -38121,7 +38755,7 @@
         <v>424</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
         <v>107</v>
@@ -38132,7 +38766,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="Y31" t="s">
         <v>108</v>
@@ -38143,7 +38777,7 @@
         <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
         <v>109</v>
@@ -38154,7 +38788,7 @@
         <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>521</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
         <v>110</v>
@@ -38165,7 +38799,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>521</v>
       </c>
       <c r="Y34" t="s">
         <v>560</v>
@@ -38176,7 +38810,7 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s">
         <v>111</v>
@@ -38187,7 +38821,7 @@
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
         <v>112</v>
@@ -38198,7 +38832,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
         <v>204</v>
@@ -38209,7 +38843,7 @@
         <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s">
         <v>113</v>
@@ -38217,7 +38851,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s">
         <v>331</v>
@@ -38225,7 +38859,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s">
         <v>437</v>
@@ -38233,7 +38867,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="Y41" t="s">
         <v>541</v>
@@ -38241,7 +38875,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>556</v>
+        <v>206</v>
       </c>
       <c r="Y42" t="s">
         <v>386</v>
@@ -38249,7 +38883,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>282</v>
+        <v>556</v>
       </c>
       <c r="Y43" t="s">
         <v>114</v>
@@ -38257,7 +38891,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Y44" t="s">
         <v>115</v>
@@ -38265,7 +38899,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y45" t="s">
         <v>116</v>
@@ -38273,7 +38907,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Y46" t="s">
         <v>117</v>
@@ -38281,7 +38915,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y47" t="s">
         <v>118</v>
@@ -38289,7 +38923,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s">
         <v>119</v>
@@ -38297,7 +38931,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="Y49" t="s">
         <v>452</v>
@@ -38305,7 +38939,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Y50" t="s">
         <v>207</v>
@@ -38313,7 +38947,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Y51" t="s">
         <v>69</v>
@@ -38321,7 +38955,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Y52" t="s">
         <v>546</v>
@@ -38329,7 +38963,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s">
         <v>120</v>
@@ -38337,7 +38971,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s">
         <v>121</v>
@@ -38345,7 +38979,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Y55" t="s">
         <v>122</v>
@@ -38353,7 +38987,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Y56" t="s">
         <v>497</v>
@@ -38361,7 +38995,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y57" t="s">
         <v>478</v>
@@ -38369,7 +39003,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>557</v>
+        <v>286</v>
       </c>
       <c r="Y58" t="s">
         <v>123</v>
@@ -38377,7 +39011,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>287</v>
+        <v>557</v>
       </c>
       <c r="Y59" t="s">
         <v>339</v>
@@ -38385,7 +39019,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s">
         <v>471</v>
@@ -38393,7 +39027,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s">
         <v>124</v>
@@ -38401,7 +39035,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="Y62" t="s">
         <v>125</v>
@@ -38409,7 +39043,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s">
         <v>126</v>
@@ -38417,7 +39051,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y64" t="s">
         <v>127</v>
@@ -38425,7 +39059,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="Y65" t="s">
         <v>128</v>
@@ -38433,7 +39067,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y66" t="s">
         <v>129</v>
@@ -38441,7 +39075,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="Y67" t="s">
         <v>130</v>
@@ -38449,7 +39083,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="s">
         <v>448</v>
@@ -38457,7 +39091,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="Y69" t="s">
         <v>488</v>
@@ -38465,7 +39099,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>542</v>
+        <v>262</v>
       </c>
       <c r="Y70" t="s">
         <v>208</v>
@@ -38473,7 +39107,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="Y71" t="s">
         <v>382</v>
@@ -38481,7 +39115,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="Y72" t="s">
         <v>453</v>
@@ -38489,7 +39123,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="Y73" t="s">
         <v>131</v>
@@ -38497,7 +39131,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="Y74" t="s">
         <v>132</v>
@@ -38505,7 +39139,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="Y75" t="s">
         <v>133</v>
@@ -38513,7 +39147,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>522</v>
+        <v>255</v>
       </c>
       <c r="Y76" t="s">
         <v>134</v>
@@ -38521,7 +39155,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>337</v>
+        <v>522</v>
       </c>
       <c r="Y77" t="s">
         <v>191</v>
@@ -38529,7 +39163,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="Y78" t="s">
         <v>192</v>
@@ -38537,7 +39171,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Y79" t="s">
         <v>466</v>
@@ -38545,7 +39179,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y80" t="s">
         <v>482</v>
@@ -38553,7 +39187,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>425</v>
+        <v>284</v>
       </c>
       <c r="Y81" t="s">
         <v>135</v>
@@ -38561,7 +39195,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="Y82" t="s">
         <v>136</v>
@@ -38569,7 +39203,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="Y83" t="s">
         <v>137</v>
@@ -38577,7 +39211,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Y84" t="s">
         <v>509</v>
@@ -38585,7 +39219,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Y85" t="s">
         <v>138</v>
@@ -38593,7 +39227,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y86" t="s">
         <v>139</v>
@@ -38601,7 +39235,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>543</v>
+        <v>269</v>
       </c>
       <c r="Y87" t="s">
         <v>193</v>
@@ -38609,7 +39243,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>264</v>
+        <v>543</v>
       </c>
       <c r="Y88" t="s">
         <v>498</v>
@@ -38617,7 +39251,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y89" t="s">
         <v>194</v>
@@ -38625,7 +39259,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y90" t="s">
         <v>465</v>
@@ -38633,7 +39267,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y91" t="s">
         <v>195</v>
@@ -38641,7 +39275,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y92" t="s">
         <v>196</v>
@@ -38649,15 +39283,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y93" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y94" t="s">
         <v>209</v>
@@ -38665,7 +39299,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y95" t="s">
         <v>140</v>
@@ -38673,7 +39307,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y96" t="s">
         <v>197</v>
@@ -38681,13 +39315,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y97" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
       <c r="Y98" t="s">
         <v>447</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29880" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30436" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1762,6 +1762,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1772,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="943" x14ac:knownFonts="1">
+  <fonts count="959" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7708,8 +7711,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1641">
+  <fills count="1668">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17004,8 +17108,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1722">
+  <borders count="1754">
     <border>
       <left/>
       <right/>
@@ -30950,6 +31207,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34394,7 +34977,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="956">
+  <cellXfs count="972">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37221,52 +37804,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1613" fontId="926" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="1616" borderId="1697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1697" fillId="1616" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1619" borderId="1701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1701" fillId="1619" fontId="929" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1622" borderId="1705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1705" fillId="1622" fontId="930" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1625" borderId="1709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1709" fillId="1625" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="932" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1628" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1628" fontId="933" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="935" fillId="1631" borderId="1713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="936" fillId="1622" borderId="1717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1637" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="942" fillId="1640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="934" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1713" fillId="1631" fontId="935" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1717" fillId="1622" fontId="936" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1721" fillId="1634" fontId="937" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1721" fillId="1634" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1625" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1637" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1625" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1640" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1643" borderId="1729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1646" borderId="1733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1649" borderId="1737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1652" borderId="1741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1658" borderId="1745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="1649" borderId="1749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1664" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1667" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37564,7 +38195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -39294,7 +39925,7 @@
         <v>304</v>
       </c>
       <c r="Y94" t="s">
-        <v>209</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95">
@@ -39302,7 +39933,7 @@
         <v>288</v>
       </c>
       <c r="Y95" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -39310,7 +39941,7 @@
         <v>333</v>
       </c>
       <c r="Y96" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
@@ -39318,7 +39949,7 @@
         <v>270</v>
       </c>
       <c r="Y97" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
@@ -39326,181 +39957,186 @@
         <v>271</v>
       </c>
       <c r="Y98" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>561</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>157</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,41 +13,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30436" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30996" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1765,6 +1766,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1791,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="959" x14ac:knownFonts="1">
+  <fonts count="975" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7812,8 +7831,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1668">
+  <fills count="1695">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17261,8 +17381,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1754">
+  <borders count="1786">
     <border>
       <left/>
       <right/>
@@ -31207,6 +31480,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34977,7 +35576,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="972">
+  <cellXfs count="988">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37852,52 +38451,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1640" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1643" borderId="1729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1729" fillId="1643" fontId="943" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="944" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1646" borderId="1733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1733" fillId="1646" fontId="945" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1649" borderId="1737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1737" fillId="1649" fontId="946" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1652" borderId="1741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1741" fillId="1652" fontId="947" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="948" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1655" fontId="949" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="951" fillId="1658" borderId="1745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="952" fillId="1649" borderId="1749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="954" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="1664" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="958" fillId="1667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="950" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1745" fillId="1658" fontId="951" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1749" fillId="1649" fontId="952" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1753" fillId="1661" fontId="953" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1753" fillId="1661" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1652" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1664" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1652" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1667" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1670" borderId="1761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1673" borderId="1765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1676" borderId="1769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1679" borderId="1773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="1682" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="1685" borderId="1777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="1676" borderId="1781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="1691" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="1694" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -38195,7 +38842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -38218,81 +38865,84 @@
         <v>499</v>
       </c>
       <c r="E1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>525</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>232</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>387</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>420</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>421</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>350</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>388</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>422</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -38310,81 +38960,84 @@
         <v>500</v>
       </c>
       <c r="E2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>461</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>481</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>308</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>377</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>426</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>526</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>493</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>246</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>211</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>389</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>432</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>433</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>374</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>398</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>441</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -38401,76 +39054,76 @@
       <c r="D3" t="s">
         <v>536</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>469</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>358</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>491</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>334</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>327</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>527</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>494</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>233</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>212</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>390</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>434</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>375</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -38484,82 +39137,82 @@
       <c r="D4" t="s">
         <v>501</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>462</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>492</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>343</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>328</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>528</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>495</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>234</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>213</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>391</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>435</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>351</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>442</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
@@ -38567,73 +39220,73 @@
       <c r="D5" t="s">
         <v>502</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>470</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>449</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>563</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>467</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>540</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>344</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>475</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>538</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>23</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>235</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>214</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>392</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>436</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
-        <v>348</v>
-      </c>
       <c r="Z5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>443</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
@@ -38641,1502 +39294,1510 @@
       <c r="D6" t="s">
         <v>503</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>516</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>329</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>459</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>341</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>532</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>236</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>384</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>393</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>455</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>444</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>458</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>544</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>533</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>237</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>394</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>456</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>445</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>311</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>359</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>321</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>517</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>534</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>83</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>238</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>395</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>446</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>360</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>322</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>539</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>84</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>396</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>308</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>299</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>463</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>529</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>430</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>240</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>397</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" t="s">
+        <v>568</v>
+      </c>
+      <c r="H11" t="s">
         <v>345</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>315</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>518</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>486</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>530</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>85</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>312</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>316</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>383</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>545</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>531</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>34</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
         <v>334</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>256</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>317</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>451</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>86</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>487</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>87</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>257</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>519</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>513</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>258</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>73</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>558</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>514</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
         <v>379</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>310</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>74</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>515</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>476</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>423</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>468</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>289</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" t="s">
         <v>554</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>291</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>485</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>496</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" t="s">
         <v>314</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>292</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>283</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>559</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" t="s">
         <v>460</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>272</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>537</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>103</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>218</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>104</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
         <v>219</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>275</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>450</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>105</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>483</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>38</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>422</v>
-      </c>
-      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
         <v>484</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s">
-        <v>424</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>210</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>268</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>278</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>59</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>521</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>253</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>61</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>323</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>62</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>300</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39">
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>301</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>260</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>70</v>
       </c>
-      <c r="Y41" t="s">
-        <v>541</v>
+      <c r="Z41" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>206</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>556</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>293</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>294</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>336</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>335</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>205</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>313</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>332</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>295</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>324</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>261</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>285</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>286</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>557</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>287</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>296</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>305</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>330</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>302</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>338</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>306</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>262</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>542</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>307</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>297</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>255</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>522</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>337</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>273</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>279</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>284</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>325</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>263</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>274</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>280</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>269</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>543</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>264</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>281</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>265</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>266</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>298</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>304</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>288</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>333</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>270</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>271</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30996" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31556" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1791,7 +1791,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="975" x14ac:knownFonts="1">
+  <fonts count="991" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7932,8 +7932,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1695">
+  <fills count="1722">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17534,8 +17635,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1786">
+  <borders count="1818">
     <border>
       <left/>
       <right/>
@@ -31480,6 +31734,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35576,7 +36156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="988">
+  <cellXfs count="1004">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38499,52 +39079,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1667" fontId="958" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="959" fillId="1670" borderId="1761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1761" fillId="1670" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="960" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="961" fillId="1673" borderId="1765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1765" fillId="1673" fontId="961" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="962" fillId="1676" borderId="1769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1769" fillId="1676" fontId="962" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="963" fillId="1679" borderId="1773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1773" fillId="1679" fontId="963" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="964" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="965" fillId="1682" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1682" fontId="965" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="967" fillId="1685" borderId="1777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="968" fillId="1676" borderId="1781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="969" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="970" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="971" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="972" fillId="1691" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="973" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="974" fillId="1694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="966" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1777" fillId="1685" fontId="967" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1781" fillId="1676" fontId="968" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1785" fillId="1688" fontId="969" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1785" fillId="1688" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1679" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1691" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1679" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1694" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="1697" borderId="1793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="1700" borderId="1797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1703" borderId="1801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="1706" borderId="1805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="1709" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="1712" borderId="1809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="1703" borderId="1813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="1718" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="1721" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31556" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32678" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1784,6 +1784,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1797,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="991" x14ac:knownFonts="1">
+  <fonts count="1023" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8033,8 +8039,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1722">
+  <fills count="1776">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17788,8 +17996,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1818">
+  <borders count="1882">
     <border>
       <left/>
       <right/>
@@ -31734,6 +32248,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36156,7 +37322,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1004">
+  <cellXfs count="1036">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39127,52 +40293,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1694" fontId="974" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="975" fillId="1697" borderId="1793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1793" fillId="1697" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="976" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="977" fillId="1700" borderId="1797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1797" fillId="1700" fontId="977" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="978" fillId="1703" borderId="1801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1801" fillId="1703" fontId="978" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="979" fillId="1706" borderId="1805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1805" fillId="1706" fontId="979" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="980" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="981" fillId="1709" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1709" fontId="981" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="983" fillId="1712" borderId="1809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="984" fillId="1703" borderId="1813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="985" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="986" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="987" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="988" fillId="1718" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="989" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="990" fillId="1721" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="982" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1809" fillId="1712" fontId="983" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1813" fillId="1703" fontId="984" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1817" fillId="1715" fontId="985" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1817" fillId="1715" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1706" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1718" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1706" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1721" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1825" fillId="1724" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1829" fillId="1727" fontId="993" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1833" fillId="1730" fontId="994" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1837" fillId="1733" fontId="995" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="996" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1736" fontId="997" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="998" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1841" fillId="1739" fontId="999" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1845" fillId="1730" fontId="1000" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1849" fillId="1742" fontId="1001" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1849" fillId="1742" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1733" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1745" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1733" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1748" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="1751" borderId="1857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1754" borderId="1861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1757" borderId="1865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1760" borderId="1869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1763" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1766" borderId="1873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="1757" borderId="1877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1772" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1775" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40427,7 +41689,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>423</v>
+        <v>572</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -40450,7 +41712,7 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -40470,7 +41732,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
@@ -40490,13 +41752,13 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>554</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="Z21" t="s">
         <v>100</v>
@@ -40510,7 +41772,7 @@
         <v>420</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
@@ -40530,7 +41792,7 @@
         <v>421</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
@@ -40550,7 +41812,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
@@ -40570,7 +41832,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
@@ -40590,7 +41852,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="H26" t="s">
         <v>68</v>
@@ -40610,7 +41872,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
@@ -40630,7 +41892,7 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>483</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
@@ -40647,7 +41909,7 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
@@ -40664,7 +41926,7 @@
         <v>422</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
@@ -40678,7 +41940,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
         <v>210</v>
@@ -40689,7 +41951,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -40700,7 +41962,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -40711,7 +41973,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
         <v>521</v>
@@ -40722,7 +41984,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -40733,7 +41995,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -40744,7 +42006,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -40755,7 +42017,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -40765,6 +42027,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
         <v>301</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32678" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33242" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1790,6 +1790,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1023" x14ac:knownFonts="1">
+  <fonts count="1039" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8241,8 +8256,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1776">
+  <fills count="1803">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18302,8 +18418,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1882">
+  <borders count="1914">
     <border>
       <left/>
       <right/>
@@ -32248,6 +32517,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37322,7 +37917,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1036">
+  <cellXfs count="1052">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40389,52 +40984,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1748" fontId="1006" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1007" fillId="1751" borderId="1857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1857" fillId="1751" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1008" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1754" borderId="1861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1861" fillId="1754" fontId="1009" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1757" borderId="1865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1865" fillId="1757" fontId="1010" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1760" borderId="1869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1869" fillId="1760" fontId="1011" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1012" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1763" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1763" fontId="1013" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1766" borderId="1873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1016" fillId="1757" borderId="1877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1018" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1772" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1014" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1873" fillId="1766" fontId="1015" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1877" fillId="1757" fontId="1016" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1881" fillId="1769" fontId="1017" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1881" fillId="1769" fontId="1018" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1760" fontId="1019" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1772" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1760" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1775" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1778" borderId="1889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1781" borderId="1893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1784" borderId="1897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="1787" borderId="1901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="1790" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1793" borderId="1905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="1784" borderId="1909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1799" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1802" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40732,7 +41375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -41046,7 +41689,7 @@
         <v>343</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>575</v>
       </c>
       <c r="M4" t="s">
         <v>328</v>
@@ -41082,7 +41725,7 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="AA4" t="s">
         <v>166</v>
@@ -41129,7 +41772,7 @@
         <v>344</v>
       </c>
       <c r="L5" t="s">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s">
         <v>79</v>
@@ -41196,11 +41839,14 @@
       <c r="I6" t="s">
         <v>459</v>
       </c>
+      <c r="J6" t="s">
+        <v>574</v>
+      </c>
       <c r="K6" t="s">
         <v>341</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>475</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -41262,7 +41908,7 @@
         <v>544</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
         <v>308</v>
@@ -41321,7 +41967,7 @@
         <v>321</v>
       </c>
       <c r="L8" t="s">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
@@ -41377,7 +42023,7 @@
         <v>322</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
@@ -41421,7 +42067,7 @@
         <v>463</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
@@ -41462,7 +42108,7 @@
         <v>315</v>
       </c>
       <c r="L11" t="s">
-        <v>518</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
         <v>486</v>
@@ -41500,7 +42146,7 @@
         <v>316</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="N12" t="s">
         <v>545</v>
@@ -41538,7 +42184,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="N13" t="s">
         <v>451</v>
@@ -41573,7 +42219,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>487</v>
@@ -41605,7 +42251,7 @@
         <v>257</v>
       </c>
       <c r="L15" t="s">
-        <v>519</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
         <v>32</v>
@@ -41637,7 +42283,7 @@
         <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="N16" t="s">
         <v>558</v>
@@ -41669,7 +42315,7 @@
         <v>310</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
         <v>33</v>
@@ -41689,13 +42335,13 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>572</v>
+        <v>423</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -41712,13 +42358,13 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="Z19" t="s">
         <v>98</v>
@@ -41732,13 +42378,13 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s">
         <v>99</v>
@@ -41752,13 +42398,13 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>554</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>573</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s">
         <v>100</v>
@@ -41772,13 +42418,13 @@
         <v>420</v>
       </c>
       <c r="F22" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
       </c>
       <c r="L22" t="s">
-        <v>485</v>
+        <v>573</v>
       </c>
       <c r="Z22" t="s">
         <v>496</v>
@@ -41792,13 +42438,13 @@
         <v>421</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>485</v>
       </c>
       <c r="Z23" t="s">
         <v>102</v>
@@ -41812,13 +42458,13 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s">
         <v>559</v>
@@ -41832,13 +42478,13 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>537</v>
+        <v>385</v>
       </c>
       <c r="Z25" t="s">
         <v>103</v>
@@ -41852,13 +42498,13 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>460</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
         <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="Z26" t="s">
         <v>104</v>
@@ -41872,13 +42518,13 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s">
         <v>105</v>
@@ -41892,13 +42538,13 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="Z28" t="s">
         <v>106</v>
@@ -41909,13 +42555,13 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s">
         <v>320</v>
@@ -41926,10 +42572,13 @@
         <v>422</v>
       </c>
       <c r="F30" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
       </c>
       <c r="Z30" t="s">
         <v>107</v>
@@ -41940,7 +42589,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>424</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
         <v>210</v>
@@ -41951,7 +42600,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -41962,7 +42611,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -41973,7 +42622,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>521</v>
@@ -41984,7 +42633,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -41995,7 +42644,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -42006,7 +42655,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -42017,7 +42666,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -42027,9 +42676,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
       <c r="H39" t="s">
         <v>301</v>
       </c>
@@ -42511,186 +43157,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>447</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>198</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>520</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>571</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>142</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>143</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>454</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>561</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>158</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33242" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33806" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1812,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1039" x14ac:knownFonts="1">
+  <fonts count="1055" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8357,8 +8357,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1803">
+  <fills count="1830">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18571,8 +18672,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1914">
+  <borders count="1946">
     <border>
       <left/>
       <right/>
@@ -32517,6 +32771,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37917,7 +38497,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1052">
+  <cellXfs count="1068">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41032,52 +41612,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1775" fontId="1022" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1778" borderId="1889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1889" fillId="1778" fontId="1023" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1024" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1781" borderId="1893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1893" fillId="1781" fontId="1025" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1784" borderId="1897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1897" fillId="1784" fontId="1026" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="1787" borderId="1901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1901" fillId="1787" fontId="1027" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1028" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="1790" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1790" fontId="1029" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1793" borderId="1905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1032" fillId="1784" borderId="1909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1799" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1802" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1030" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1905" fillId="1793" fontId="1031" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1909" fillId="1784" fontId="1032" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1913" fillId="1796" fontId="1033" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1913" fillId="1796" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1787" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1799" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1787" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1802" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="1805" borderId="1921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1808" borderId="1925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1811" borderId="1929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="1814" borderId="1933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="1817" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1820" borderId="1937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="1811" borderId="1941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="1826" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="1829" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33806" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34936" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1805,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1055" x14ac:knownFonts="1">
+  <fonts count="1087" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8458,8 +8461,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1830">
+  <fills count="1884">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18825,8 +19030,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1946">
+  <borders count="2010">
     <border>
       <left/>
       <right/>
@@ -32771,6 +33282,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38497,7 +39660,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1068">
+  <cellXfs count="1100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41660,52 +42823,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1802" fontId="1038" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1039" fillId="1805" borderId="1921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1921" fillId="1805" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1040" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1808" borderId="1925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1925" fillId="1808" fontId="1041" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1811" borderId="1929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1929" fillId="1811" fontId="1042" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1043" fillId="1814" borderId="1933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1933" fillId="1814" fontId="1043" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1045" fillId="1817" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1817" fontId="1045" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1820" borderId="1937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1048" fillId="1811" borderId="1941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1049" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1050" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1051" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1052" fillId="1826" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1054" fillId="1829" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1046" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1937" fillId="1820" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1941" fillId="1811" fontId="1048" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1945" fillId="1823" fontId="1049" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1945" fillId="1823" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1814" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1826" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1814" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1829" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1953" fillId="1832" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1957" fillId="1835" fontId="1057" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1961" fillId="1838" fontId="1058" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1965" fillId="1841" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1060" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1844" fontId="1061" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1062" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1969" fillId="1847" fontId="1063" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1973" fillId="1838" fontId="1064" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1977" fillId="1850" fontId="1065" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1977" fillId="1850" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1841" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1853" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1841" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1856" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1859" borderId="1985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1862" borderId="1989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1865" borderId="1993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1868" borderId="1997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="1871" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1874" borderId="2001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="1865" borderId="2005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1880" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1883" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42003,7 +43262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -43708,7 +44967,7 @@
         <v>264</v>
       </c>
       <c r="Z89" t="s">
-        <v>194</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90">
@@ -43716,7 +44975,7 @@
         <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
@@ -43724,7 +44983,7 @@
         <v>265</v>
       </c>
       <c r="Z91" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92">
@@ -43732,7 +44991,7 @@
         <v>266</v>
       </c>
       <c r="Z92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
@@ -43740,7 +44999,7 @@
         <v>298</v>
       </c>
       <c r="Z93" t="s">
-        <v>564</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
@@ -43748,7 +45007,7 @@
         <v>304</v>
       </c>
       <c r="Z94" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95">
@@ -43756,7 +45015,7 @@
         <v>288</v>
       </c>
       <c r="Z95" t="s">
-        <v>209</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
@@ -43764,7 +45023,7 @@
         <v>333</v>
       </c>
       <c r="Z96" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
@@ -43772,7 +45031,7 @@
         <v>270</v>
       </c>
       <c r="Z97" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
@@ -43780,201 +45039,206 @@
         <v>271</v>
       </c>
       <c r="Z98" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>142</v>
+        <v>523</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>376</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>561</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>157</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{1C07A037-8BCA-2445-872E-0CB79DE8D918}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="10280" windowWidth="16800" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="10280" windowWidth="16800" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34936" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35501" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1815,7 +1815,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1087" x14ac:knownFonts="1">
+  <fonts count="1103" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8663,8 +8663,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1884">
+  <fills count="1911">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19336,8 +19437,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2010">
+  <borders count="2042">
     <border>
       <left/>
       <right/>
@@ -33282,6 +33536,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39660,7 +40240,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1100">
+  <cellXfs count="1116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42919,52 +43499,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1856" fontId="1070" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1859" borderId="1985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1985" fillId="1859" fontId="1071" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1072" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1862" borderId="1989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1989" fillId="1862" fontId="1073" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1865" borderId="1993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1993" fillId="1865" fontId="1074" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1868" borderId="1997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1997" fillId="1868" fontId="1075" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1076" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1077" fillId="1871" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1871" fontId="1077" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1874" borderId="2001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1080" fillId="1865" borderId="2005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1082" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1083" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1880" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1078" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2001" fillId="1874" fontId="1079" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2005" fillId="1865" fontId="1080" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2009" fillId="1877" fontId="1081" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2009" fillId="1877" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1868" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1880" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1868" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1883" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="1886" borderId="2017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1889" borderId="2021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1892" borderId="2025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="1895" borderId="2029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="1898" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1901" borderId="2033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="1892" borderId="2037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1907" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="1910" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43264,7 +43892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45251,9 +45879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E5" pane="bottomLeft" sqref="E5"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{1C07A037-8BCA-2445-872E-0CB79DE8D918}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="10280" windowWidth="16800" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10280" windowWidth="16800" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -29,15 +29,15 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35501" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36076" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1808,6 +1808,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1103" x14ac:knownFonts="1">
+  <fonts count="1119" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8764,8 +8794,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1911">
+  <fills count="1938">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19590,8 +19721,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2042">
+  <borders count="2074">
     <border>
       <left/>
       <right/>
@@ -33536,6 +33820,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40240,7 +40850,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1116">
+  <cellXfs count="1132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43547,52 +44157,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1883" fontId="1086" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1087" fillId="1886" borderId="2017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2017" fillId="1886" fontId="1087" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1088" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1889" borderId="2021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2021" fillId="1889" fontId="1089" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1892" borderId="2025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2025" fillId="1892" fontId="1090" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1091" fillId="1895" borderId="2029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2029" fillId="1895" fontId="1091" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1092" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1093" fillId="1898" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1898" fontId="1093" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1095" fillId="1901" borderId="2033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1096" fillId="1892" borderId="2037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1097" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1098" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1907" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1102" fillId="1910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1094" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2033" fillId="1901" fontId="1095" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2037" fillId="1892" fontId="1096" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2041" fillId="1904" fontId="1097" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2041" fillId="1904" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1895" fontId="1099" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1907" fontId="1100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1895" fontId="1101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1910" fontId="1102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1913" borderId="2049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1916" borderId="2053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1919" borderId="2057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1922" borderId="2061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="1925" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="1928" borderId="2065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="1919" borderId="2069" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="1934" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="1937" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43890,9 +44548,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44320,7 +44978,7 @@
         <v>167</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>588</v>
       </c>
       <c r="AC5" t="s">
         <v>178</v>
@@ -44391,7 +45049,7 @@
         <v>455</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC6" t="s">
         <v>179</v>
@@ -44453,7 +45111,7 @@
         <v>456</v>
       </c>
       <c r="AB7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="s">
         <v>180</v>
@@ -44509,7 +45167,7 @@
         <v>168</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
         <v>181</v>
@@ -44561,6 +45219,9 @@
       <c r="Z9" t="s">
         <v>203</v>
       </c>
+      <c r="AB9" t="s">
+        <v>175</v>
+      </c>
       <c r="AC9" t="s">
         <v>182</v>
       </c>
@@ -44579,7 +45240,7 @@
         <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>463</v>
+        <v>580</v>
       </c>
       <c r="L10" t="s">
         <v>72</v>
@@ -44601,6 +45262,9 @@
       </c>
       <c r="Z10" t="s">
         <v>250</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>589</v>
       </c>
       <c r="AC10" t="s">
         <v>183</v>
@@ -44620,7 +45284,7 @@
         <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -44658,7 +45322,7 @@
         <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L12" t="s">
         <v>518</v>
@@ -44696,7 +45360,7 @@
         <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
         <v>383</v>
@@ -44708,7 +45372,7 @@
         <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>581</v>
       </c>
       <c r="Z13" t="s">
         <v>319</v>
@@ -44731,7 +45395,7 @@
         <v>309</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -44743,7 +45407,7 @@
         <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Z14" t="s">
         <v>95</v>
@@ -44765,6 +45429,9 @@
       <c r="H15" t="s">
         <v>257</v>
       </c>
+      <c r="I15" t="s">
+        <v>318</v>
+      </c>
       <c r="L15" t="s">
         <v>35</v>
       </c>
@@ -44775,10 +45442,10 @@
         <v>513</v>
       </c>
       <c r="S15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z15" t="s">
-        <v>96</v>
+        <v>582</v>
       </c>
       <c r="AC15" t="s">
         <v>187</v>
@@ -44807,10 +45474,10 @@
         <v>514</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="s">
         <v>188</v>
@@ -44835,8 +45502,11 @@
       <c r="N17" t="s">
         <v>33</v>
       </c>
+      <c r="S17" t="s">
+        <v>245</v>
+      </c>
       <c r="Z17" t="s">
-        <v>515</v>
+        <v>67</v>
       </c>
       <c r="AC17" t="s">
         <v>476</v>
@@ -44862,7 +45532,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>97</v>
+        <v>515</v>
       </c>
       <c r="AE18" t="s">
         <v>490</v>
@@ -44882,7 +45552,7 @@
         <v>468</v>
       </c>
       <c r="Z19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE19" t="s">
         <v>507</v>
@@ -44902,7 +45572,7 @@
         <v>75</v>
       </c>
       <c r="Z20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE20" t="s">
         <v>508</v>
@@ -44922,7 +45592,7 @@
         <v>76</v>
       </c>
       <c r="Z21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s">
         <v>512</v>
@@ -44942,7 +45612,7 @@
         <v>573</v>
       </c>
       <c r="Z22" t="s">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="s">
         <v>228</v>
@@ -44962,7 +45632,7 @@
         <v>485</v>
       </c>
       <c r="Z23" t="s">
-        <v>102</v>
+        <v>496</v>
       </c>
       <c r="AE23" t="s">
         <v>550</v>
@@ -44982,7 +45652,7 @@
         <v>37</v>
       </c>
       <c r="Z24" t="s">
-        <v>559</v>
+        <v>102</v>
       </c>
       <c r="AE24" t="s">
         <v>551</v>
@@ -45002,7 +45672,7 @@
         <v>385</v>
       </c>
       <c r="Z25" t="s">
-        <v>103</v>
+        <v>559</v>
       </c>
       <c r="AE25" t="s">
         <v>552</v>
@@ -45022,7 +45692,7 @@
         <v>537</v>
       </c>
       <c r="Z26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE26" t="s">
         <v>229</v>
@@ -45042,7 +45712,7 @@
         <v>77</v>
       </c>
       <c r="Z27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE27" t="s">
         <v>230</v>
@@ -45062,7 +45732,7 @@
         <v>450</v>
       </c>
       <c r="Z28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -45079,7 +45749,7 @@
         <v>38</v>
       </c>
       <c r="Z29" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -45096,7 +45766,7 @@
         <v>39</v>
       </c>
       <c r="Z30" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
@@ -45110,7 +45780,7 @@
         <v>210</v>
       </c>
       <c r="Z31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -45121,7 +45791,7 @@
         <v>268</v>
       </c>
       <c r="Z32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -45132,7 +45802,7 @@
         <v>278</v>
       </c>
       <c r="Z33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -45143,7 +45813,7 @@
         <v>521</v>
       </c>
       <c r="Z34" t="s">
-        <v>560</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -45154,7 +45824,7 @@
         <v>253</v>
       </c>
       <c r="Z35" t="s">
-        <v>111</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36">
@@ -45165,7 +45835,7 @@
         <v>323</v>
       </c>
       <c r="Z36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -45176,7 +45846,7 @@
         <v>300</v>
       </c>
       <c r="Z37" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -45187,7 +45857,7 @@
         <v>254</v>
       </c>
       <c r="Z38" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
@@ -45195,7 +45865,7 @@
         <v>301</v>
       </c>
       <c r="Z39" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -45203,7 +45873,7 @@
         <v>260</v>
       </c>
       <c r="Z40" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41">
@@ -45211,7 +45881,7 @@
         <v>70</v>
       </c>
       <c r="Z41" t="s">
-        <v>570</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42">
@@ -45219,7 +45889,7 @@
         <v>206</v>
       </c>
       <c r="Z42" t="s">
-        <v>386</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43">
@@ -45227,7 +45897,7 @@
         <v>556</v>
       </c>
       <c r="Z43" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
@@ -45235,7 +45905,7 @@
         <v>282</v>
       </c>
       <c r="Z44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -45243,7 +45913,7 @@
         <v>293</v>
       </c>
       <c r="Z45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -45251,7 +45921,7 @@
         <v>294</v>
       </c>
       <c r="Z46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -45259,7 +45929,7 @@
         <v>336</v>
       </c>
       <c r="Z47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -45267,7 +45937,7 @@
         <v>335</v>
       </c>
       <c r="Z48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -45275,7 +45945,7 @@
         <v>205</v>
       </c>
       <c r="Z49" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -45283,7 +45953,7 @@
         <v>313</v>
       </c>
       <c r="Z50" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
@@ -45291,7 +45961,7 @@
         <v>332</v>
       </c>
       <c r="Z51" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52">
@@ -45299,7 +45969,7 @@
         <v>361</v>
       </c>
       <c r="Z52" t="s">
-        <v>546</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -45307,7 +45977,7 @@
         <v>295</v>
       </c>
       <c r="Z53" t="s">
-        <v>120</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54">
@@ -45315,7 +45985,7 @@
         <v>349</v>
       </c>
       <c r="Z54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -45323,7 +45993,7 @@
         <v>324</v>
       </c>
       <c r="Z55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -45331,7 +46001,7 @@
         <v>261</v>
       </c>
       <c r="Z56" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -45339,7 +46009,7 @@
         <v>285</v>
       </c>
       <c r="Z57" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58">
@@ -45347,7 +46017,7 @@
         <v>286</v>
       </c>
       <c r="Z58" t="s">
-        <v>123</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59">
@@ -45355,7 +46025,7 @@
         <v>557</v>
       </c>
       <c r="Z59" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -45363,7 +46033,7 @@
         <v>287</v>
       </c>
       <c r="Z60" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -45371,7 +46041,7 @@
         <v>296</v>
       </c>
       <c r="Z61" t="s">
-        <v>124</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
@@ -45379,7 +46049,7 @@
         <v>305</v>
       </c>
       <c r="Z62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
@@ -45387,7 +46057,7 @@
         <v>330</v>
       </c>
       <c r="Z63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -45395,7 +46065,7 @@
         <v>302</v>
       </c>
       <c r="Z64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -45403,7 +46073,7 @@
         <v>303</v>
       </c>
       <c r="Z65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
@@ -45411,7 +46081,7 @@
         <v>362</v>
       </c>
       <c r="Z66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
@@ -45419,7 +46089,7 @@
         <v>363</v>
       </c>
       <c r="Z67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
@@ -45427,7 +46097,7 @@
         <v>338</v>
       </c>
       <c r="Z68" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
@@ -45435,7 +46105,7 @@
         <v>306</v>
       </c>
       <c r="Z69" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70">
@@ -45443,7 +46113,7 @@
         <v>262</v>
       </c>
       <c r="Z70" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
@@ -45451,7 +46121,7 @@
         <v>542</v>
       </c>
       <c r="Z71" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
@@ -45459,7 +46129,7 @@
         <v>307</v>
       </c>
       <c r="Z72" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73">
@@ -45467,7 +46137,7 @@
         <v>401</v>
       </c>
       <c r="Z73" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
@@ -45475,7 +46145,7 @@
         <v>297</v>
       </c>
       <c r="Z74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
@@ -45483,7 +46153,7 @@
         <v>402</v>
       </c>
       <c r="Z75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
@@ -45491,7 +46161,7 @@
         <v>255</v>
       </c>
       <c r="Z76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
@@ -45499,7 +46169,7 @@
         <v>522</v>
       </c>
       <c r="Z77" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
@@ -45507,7 +46177,7 @@
         <v>337</v>
       </c>
       <c r="Z78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -45515,7 +46185,7 @@
         <v>273</v>
       </c>
       <c r="Z79" t="s">
-        <v>466</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -45523,7 +46193,7 @@
         <v>279</v>
       </c>
       <c r="Z80" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81">
@@ -45531,7 +46201,7 @@
         <v>284</v>
       </c>
       <c r="Z81" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82">
@@ -45539,7 +46209,7 @@
         <v>425</v>
       </c>
       <c r="Z82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -45547,7 +46217,7 @@
         <v>325</v>
       </c>
       <c r="Z83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
@@ -45555,7 +46225,7 @@
         <v>263</v>
       </c>
       <c r="Z84" t="s">
-        <v>509</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
@@ -45563,7 +46233,7 @@
         <v>274</v>
       </c>
       <c r="Z85" t="s">
-        <v>138</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86">
@@ -45571,7 +46241,7 @@
         <v>280</v>
       </c>
       <c r="Z86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
@@ -45579,7 +46249,7 @@
         <v>269</v>
       </c>
       <c r="Z87" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
@@ -45587,7 +46257,7 @@
         <v>543</v>
       </c>
       <c r="Z88" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89">
@@ -45595,7 +46265,7 @@
         <v>264</v>
       </c>
       <c r="Z89" t="s">
-        <v>579</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90">
@@ -45603,7 +46273,7 @@
         <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>194</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91">
@@ -45611,7 +46281,7 @@
         <v>265</v>
       </c>
       <c r="Z91" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
@@ -45619,7 +46289,7 @@
         <v>266</v>
       </c>
       <c r="Z92" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93">
@@ -45627,7 +46297,7 @@
         <v>298</v>
       </c>
       <c r="Z93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
@@ -45635,7 +46305,7 @@
         <v>304</v>
       </c>
       <c r="Z94" t="s">
-        <v>564</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
@@ -45643,7 +46313,7 @@
         <v>288</v>
       </c>
       <c r="Z95" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96">
@@ -45651,7 +46321,7 @@
         <v>333</v>
       </c>
       <c r="Z96" t="s">
-        <v>209</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
@@ -45659,7 +46329,7 @@
         <v>270</v>
       </c>
       <c r="Z97" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
@@ -45667,206 +46337,236 @@
         <v>271</v>
       </c>
       <c r="Z98" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>571</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>142</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>143</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>147</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>150</v>
+        <v>585</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>454</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>156</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>561</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>159</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>160</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36076" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36652" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1838,6 +1838,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1851,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1119" x14ac:knownFonts="1">
+  <fonts count="1135" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8895,8 +8901,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1938">
+  <fills count="1965">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19874,8 +19981,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2074">
+  <borders count="2106">
     <border>
       <left/>
       <right/>
@@ -33820,6 +34080,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40850,7 +41436,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1132">
+  <cellXfs count="1148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44205,52 +44791,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1910" fontId="1102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1103" fillId="1913" borderId="2049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2049" fillId="1913" fontId="1103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1105" fillId="1916" borderId="2053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2053" fillId="1916" fontId="1105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1106" fillId="1919" borderId="2057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2057" fillId="1919" fontId="1106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1107" fillId="1922" borderId="2061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2061" fillId="1922" fontId="1107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1108" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1109" fillId="1925" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1925" fontId="1109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1111" fillId="1928" borderId="2065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1112" fillId="1919" borderId="2069" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1113" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1114" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1115" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1116" fillId="1934" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1117" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2065" fillId="1928" fontId="1111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2069" fillId="1919" fontId="1112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2073" fillId="1931" fontId="1113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2073" fillId="1931" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1922" fontId="1115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1934" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1922" fontId="1117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1937" fontId="1118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="1940" borderId="2081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="1943" borderId="2085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="1946" borderId="2089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1123" fillId="1949" borderId="2093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="1952" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1127" fillId="1955" borderId="2097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="1946" borderId="2101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="1961" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="1964" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45240,7 +45874,7 @@
         <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L10" t="s">
         <v>72</v>
@@ -45284,7 +45918,7 @@
         <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>463</v>
+        <v>591</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -45322,7 +45956,7 @@
         <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="L12" t="s">
         <v>518</v>
@@ -45360,7 +45994,7 @@
         <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L13" t="s">
         <v>383</v>
@@ -45395,7 +46029,7 @@
         <v>309</v>
       </c>
       <c r="I14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -45430,7 +46064,7 @@
         <v>257</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -45463,6 +46097,9 @@
       </c>
       <c r="H16" t="s">
         <v>258</v>
+      </c>
+      <c r="I16" t="s">
+        <v>318</v>
       </c>
       <c r="L16" t="s">
         <v>519</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3-macro.xlsx
@@ -20,7 +20,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -34,21 +34,22 @@
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36652" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37820" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1844,6 +1845,30 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1135" x14ac:knownFonts="1">
+  <fonts count="1167" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9002,8 +9027,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1965">
+  <fills count="2019">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20134,8 +20361,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2106">
+  <borders count="2170">
     <border>
       <left/>
       <right/>
@@ -34080,6 +34613,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -41436,7 +42621,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1148">
+  <cellXfs count="1180">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44839,52 +46024,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1937" fontId="1118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1119" fillId="1940" borderId="2081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2081" fillId="1940" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1943" borderId="2085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2085" fillId="1943" fontId="1121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1946" borderId="2089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2089" fillId="1946" fontId="1122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1123" fillId="1949" borderId="2093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2093" fillId="1949" fontId="1123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1124" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1125" fillId="1952" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1952" fontId="1125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1127" fillId="1955" borderId="2097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1128" fillId="1946" borderId="2101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1129" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1130" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1131" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1132" fillId="1961" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1133" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1134" fillId="1964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2097" fillId="1955" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2101" fillId="1946" fontId="1128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2105" fillId="1958" fontId="1129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2105" fillId="1958" fontId="1130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1949" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1961" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1949" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1964" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2113" fillId="1967" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2117" fillId="1970" fontId="1137" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2121" fillId="1973" fontId="1138" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2125" fillId="1976" fontId="1139" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1140" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1979" fontId="1141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2129" fillId="1982" fontId="1143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2133" fillId="1973" fontId="1144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2137" fillId="1985" fontId="1145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2137" fillId="1985" fontId="1146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1976" fontId="1147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1988" fontId="1148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1976" fontId="1149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1991" fontId="1150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="1994" borderId="2145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="1997" borderId="2149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="2000" borderId="2153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="2003" borderId="2157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="2006" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="2009" borderId="2161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="2000" borderId="2165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="2012" borderId="2169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="2012" borderId="2169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="2003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="2015" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="2003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1166" fillId="2018" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45182,7 +46463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -45268,21 +46549,24 @@
         <v>388</v>
       </c>
       <c r="Z1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>422</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -45318,7 +46602,7 @@
         <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L2" t="s">
         <v>308</v>
@@ -45363,21 +46647,24 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA2" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>176</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>441</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -45449,21 +46736,24 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA3" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>165</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>357</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>177</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -45532,21 +46822,24 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA4" t="s">
         <v>576</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>442</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -45606,21 +46899,24 @@
         <v>352</v>
       </c>
       <c r="Z5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA5" t="s">
         <v>569</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>167</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>588</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>178</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>443</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -45650,7 +46946,7 @@
         <v>574</v>
       </c>
       <c r="K6" t="s">
-        <v>341</v>
+        <v>599</v>
       </c>
       <c r="L6" t="s">
         <v>475</v>
@@ -45677,21 +46973,24 @@
         <v>354</v>
       </c>
       <c r="Z6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA6" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>455</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>172</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>444</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -45712,7 +47011,7 @@
         <v>458</v>
       </c>
       <c r="K7" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>
@@ -45738,22 +47037,22 @@
       <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>456</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>173</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>445</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>547</v>
       </c>
     </row>
@@ -45773,6 +47072,9 @@
       <c r="I8" t="s">
         <v>321</v>
       </c>
+      <c r="K8" t="s">
+        <v>544</v>
+      </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
@@ -45794,22 +47096,22 @@
       <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>168</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>174</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>181</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>446</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>548</v>
       </c>
     </row>
@@ -45850,16 +47152,16 @@
       <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>175</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>182</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -45894,16 +47196,16 @@
       <c r="U10" t="s">
         <v>397</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>589</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>183</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -45935,13 +47237,13 @@
       <c r="S11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>251</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>252</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -45973,13 +47275,13 @@
       <c r="S12" t="s">
         <v>242</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>94</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>184</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -46008,13 +47310,13 @@
       <c r="S13" t="s">
         <v>581</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>319</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>185</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>489</v>
       </c>
     </row>
@@ -46043,13 +47345,13 @@
       <c r="S14" t="s">
         <v>247</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>95</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>505</v>
       </c>
     </row>
@@ -46078,13 +47380,13 @@
       <c r="S15" t="s">
         <v>243</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>582</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>187</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>506</v>
       </c>
     </row>
@@ -46113,13 +47415,13 @@
       <c r="S16" t="s">
         <v>244</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>96</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>188</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>510</v>
       </c>
     </row>
@@ -46142,13 +47444,13 @@
       <c r="S17" t="s">
         <v>245</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>67</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>476</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -46168,10 +47470,10 @@
       <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>515</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4